--- a/tests/test_data/sample_tecan_OD_data.xlsx
+++ b/tests/test_data/sample_tecan_OD_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraj5\OneDrive\Research\PhD_UofT\Python\impact\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{98EE82EC-70C8-42F7-ACB0-715D5935996D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{B4095D3E-9B2E-48B7-BF42-E2ADEFD52DC0}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{98EE82EC-70C8-42F7-ACB0-715D5935996D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{B7184D11-7F0C-4E45-BDB7-7AC5B87ACB2D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6924" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -1621,15 +1621,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y139"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1696,12 +1696,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1719,9 +1719,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1737,9 +1736,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1753,9 +1751,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1769,9 +1766,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1785,9 +1781,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1805,9 +1800,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1825,19 +1819,18 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1838,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1853,7 +1846,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1861,7 +1854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1872,7 +1865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1883,7 +1876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1891,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1902,7 +1895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1910,7 +1903,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
@@ -1944,50 +1937,8 @@
       <c r="K37" s="5">
         <v>10</v>
       </c>
-      <c r="L37" s="5">
-        <v>11</v>
-      </c>
-      <c r="M37" s="5">
-        <v>12</v>
-      </c>
-      <c r="N37" s="5">
-        <v>13</v>
-      </c>
-      <c r="O37" s="5">
-        <v>14</v>
-      </c>
-      <c r="P37" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>16</v>
-      </c>
-      <c r="R37" s="5">
-        <v>17</v>
-      </c>
-      <c r="S37" s="5">
-        <v>18</v>
-      </c>
-      <c r="T37" s="5">
-        <v>19</v>
-      </c>
-      <c r="U37" s="5">
-        <v>20</v>
-      </c>
-      <c r="V37" s="5">
-        <v>21</v>
-      </c>
-      <c r="W37" s="5">
-        <v>22</v>
-      </c>
-      <c r="X37" s="5">
-        <v>23</v>
-      </c>
-      <c r="Y37" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
@@ -2021,50 +1972,8 @@
       <c r="K38">
         <v>8100.1</v>
       </c>
-      <c r="L38">
-        <v>9000.1</v>
-      </c>
-      <c r="M38">
-        <v>9900.1</v>
-      </c>
-      <c r="N38">
-        <v>10800.1</v>
-      </c>
-      <c r="O38">
-        <v>11700.1</v>
-      </c>
-      <c r="P38">
-        <v>12600.1</v>
-      </c>
-      <c r="Q38">
-        <v>13500.1</v>
-      </c>
-      <c r="R38">
-        <v>14400.1</v>
-      </c>
-      <c r="S38">
-        <v>15300.1</v>
-      </c>
-      <c r="T38">
-        <v>16200.1</v>
-      </c>
-      <c r="U38">
-        <v>17100.099999999999</v>
-      </c>
-      <c r="V38">
-        <v>18000.099999999999</v>
-      </c>
-      <c r="W38">
-        <v>18900.099999999999</v>
-      </c>
-      <c r="X38">
-        <v>19800.2</v>
-      </c>
-      <c r="Y38">
-        <v>20700.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
@@ -2098,50 +2007,8 @@
       <c r="K39">
         <v>37.200000000000003</v>
       </c>
-      <c r="L39">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="M39">
-        <v>37</v>
-      </c>
-      <c r="N39">
-        <v>37</v>
-      </c>
-      <c r="O39">
-        <v>37</v>
-      </c>
-      <c r="P39">
-        <v>37</v>
-      </c>
-      <c r="Q39">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="R39">
-        <v>37.1</v>
-      </c>
-      <c r="S39">
-        <v>37.1</v>
-      </c>
-      <c r="T39">
-        <v>37.1</v>
-      </c>
-      <c r="U39">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="V39">
-        <v>37.1</v>
-      </c>
-      <c r="W39">
-        <v>37.1</v>
-      </c>
-      <c r="X39">
-        <v>37</v>
-      </c>
-      <c r="Y39">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
@@ -2175,50 +2042,8 @@
       <c r="K40">
         <v>0.17759999632835388</v>
       </c>
-      <c r="L40">
-        <v>0.17839999496936798</v>
-      </c>
-      <c r="M40">
-        <v>0.18029999732971191</v>
-      </c>
-      <c r="N40">
-        <v>0.18070000410079956</v>
-      </c>
-      <c r="O40">
-        <v>0.18219999969005585</v>
-      </c>
-      <c r="P40">
-        <v>0.18379999697208405</v>
-      </c>
-      <c r="Q40">
-        <v>0.18559999763965607</v>
-      </c>
-      <c r="R40">
-        <v>0.18809999525547028</v>
-      </c>
-      <c r="S40">
-        <v>0.19120000302791595</v>
-      </c>
-      <c r="T40">
-        <v>0.19380000233650208</v>
-      </c>
-      <c r="U40">
-        <v>0.19730000197887421</v>
-      </c>
-      <c r="V40">
-        <v>0.2004999965429306</v>
-      </c>
-      <c r="W40">
-        <v>0.20370000600814819</v>
-      </c>
-      <c r="X40">
-        <v>0.20640000700950623</v>
-      </c>
-      <c r="Y40">
-        <v>0.20880000293254852</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
@@ -2252,50 +2077,8 @@
       <c r="K41">
         <v>0.1940000057220459</v>
       </c>
-      <c r="L41">
-        <v>0.19470000267028809</v>
-      </c>
-      <c r="M41">
-        <v>0.19490000605583191</v>
-      </c>
-      <c r="N41">
-        <v>0.1956000030040741</v>
-      </c>
-      <c r="O41">
-        <v>0.19609999656677246</v>
-      </c>
-      <c r="P41">
-        <v>0.19679999351501465</v>
-      </c>
-      <c r="Q41">
-        <v>0.19779999554157257</v>
-      </c>
-      <c r="R41">
-        <v>0.19820000231266022</v>
-      </c>
-      <c r="S41">
-        <v>0.19830000400543213</v>
-      </c>
-      <c r="T41">
-        <v>0.19920000433921814</v>
-      </c>
-      <c r="U41">
-        <v>0.1996999979019165</v>
-      </c>
-      <c r="V41">
-        <v>0.20029999315738678</v>
-      </c>
-      <c r="W41">
-        <v>0.20059999823570251</v>
-      </c>
-      <c r="X41">
-        <v>0.20170000195503235</v>
-      </c>
-      <c r="Y41">
-        <v>0.20270000398159027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5" t="s">
         <v>45</v>
       </c>
@@ -2329,50 +2112,8 @@
       <c r="K42">
         <v>0.18060000240802765</v>
       </c>
-      <c r="L42">
-        <v>0.18209999799728394</v>
-      </c>
-      <c r="M42">
-        <v>0.18340000510215759</v>
-      </c>
-      <c r="N42">
-        <v>0.18520000576972961</v>
-      </c>
-      <c r="O42">
-        <v>0.18610000610351563</v>
-      </c>
-      <c r="P42">
-        <v>0.18700000643730164</v>
-      </c>
-      <c r="Q42">
-        <v>0.18940000236034393</v>
-      </c>
-      <c r="R42">
-        <v>0.19220000505447388</v>
-      </c>
-      <c r="S42">
-        <v>0.19490000605583191</v>
-      </c>
-      <c r="T42">
-        <v>0.19810000061988831</v>
-      </c>
-      <c r="U42">
-        <v>0.20080000162124634</v>
-      </c>
-      <c r="V42">
-        <v>0.20419999957084656</v>
-      </c>
-      <c r="W42">
-        <v>0.20679999887943268</v>
-      </c>
-      <c r="X42">
-        <v>0.2093999981880188</v>
-      </c>
-      <c r="Y42">
-        <v>0.21140000224113464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5" t="s">
         <v>46</v>
       </c>
@@ -2406,50 +2147,8 @@
       <c r="K43">
         <v>0.19760000705718994</v>
       </c>
-      <c r="L43">
-        <v>0.19810000061988831</v>
-      </c>
-      <c r="M43">
-        <v>0.19810000061988831</v>
-      </c>
-      <c r="N43">
-        <v>0.19840000569820404</v>
-      </c>
-      <c r="O43">
-        <v>0.19990000128746033</v>
-      </c>
-      <c r="P43">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="Q43">
-        <v>0.20010000467300415</v>
-      </c>
-      <c r="R43">
-        <v>0.20100000500679016</v>
-      </c>
-      <c r="S43">
-        <v>0.20119999349117279</v>
-      </c>
-      <c r="T43">
-        <v>0.20190000534057617</v>
-      </c>
-      <c r="U43">
-        <v>0.20229999721050262</v>
-      </c>
-      <c r="V43">
-        <v>0.20329999923706055</v>
-      </c>
-      <c r="W43">
-        <v>0.20309999585151672</v>
-      </c>
-      <c r="X43">
-        <v>0.20430000126361847</v>
-      </c>
-      <c r="Y43">
-        <v>0.20430000126361847</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
@@ -2483,50 +2182,8 @@
       <c r="K44">
         <v>0.17239999771118164</v>
       </c>
-      <c r="L44">
-        <v>0.17409999668598175</v>
-      </c>
-      <c r="M44">
-        <v>0.17489999532699585</v>
-      </c>
-      <c r="N44">
-        <v>0.17579999566078186</v>
-      </c>
-      <c r="O44">
-        <v>0.17759999632835388</v>
-      </c>
-      <c r="P44">
-        <v>0.17980000376701355</v>
-      </c>
-      <c r="Q44">
-        <v>0.18219999969005585</v>
-      </c>
-      <c r="R44">
-        <v>0.18459999561309814</v>
-      </c>
-      <c r="S44">
-        <v>0.1875</v>
-      </c>
-      <c r="T44">
-        <v>0.19089999794960022</v>
-      </c>
-      <c r="U44">
-        <v>0.19410000741481781</v>
-      </c>
-      <c r="V44">
-        <v>0.19789999723434448</v>
-      </c>
-      <c r="W44">
-        <v>0.20100000500679016</v>
-      </c>
-      <c r="X44">
-        <v>0.2046000063419342</v>
-      </c>
-      <c r="Y44">
-        <v>0.20749999582767487</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -2560,50 +2217,8 @@
       <c r="K45">
         <v>0.17100000381469727</v>
       </c>
-      <c r="L45">
-        <v>0.17180000245571136</v>
-      </c>
-      <c r="M45">
-        <v>0.17159999907016754</v>
-      </c>
-      <c r="N45">
-        <v>0.17180000245571136</v>
-      </c>
-      <c r="O45">
-        <v>0.17239999771118164</v>
-      </c>
-      <c r="P45">
-        <v>0.17339999973773956</v>
-      </c>
-      <c r="Q45">
-        <v>0.17409999668598175</v>
-      </c>
-      <c r="R45">
-        <v>0.1745000034570694</v>
-      </c>
-      <c r="S45">
-        <v>0.17499999701976776</v>
-      </c>
-      <c r="T45">
-        <v>0.1761000007390976</v>
-      </c>
-      <c r="U45">
-        <v>0.17640000581741333</v>
-      </c>
-      <c r="V45">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="W45">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="X45">
-        <v>0.17820000648498535</v>
-      </c>
-      <c r="Y45">
-        <v>0.17900000512599945</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
@@ -2637,50 +2252,8 @@
       <c r="K46">
         <v>0.16689999401569366</v>
       </c>
-      <c r="L46">
-        <v>0.16859999299049377</v>
-      </c>
-      <c r="M46">
-        <v>0.16920000314712524</v>
-      </c>
-      <c r="N46">
-        <v>0.17049999535083771</v>
-      </c>
-      <c r="O46">
-        <v>0.17200000584125519</v>
-      </c>
-      <c r="P46">
-        <v>0.1737000048160553</v>
-      </c>
-      <c r="Q46">
-        <v>0.17599999904632568</v>
-      </c>
-      <c r="R46">
-        <v>0.17839999496936798</v>
-      </c>
-      <c r="S46">
-        <v>0.18170000612735748</v>
-      </c>
-      <c r="T46">
-        <v>0.18469999730587006</v>
-      </c>
-      <c r="U46">
-        <v>0.18799999356269836</v>
-      </c>
-      <c r="V46">
-        <v>0.19169999659061432</v>
-      </c>
-      <c r="W46">
-        <v>0.19529999792575836</v>
-      </c>
-      <c r="X46">
-        <v>0.19869999587535858</v>
-      </c>
-      <c r="Y46">
-        <v>0.20190000534057617</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -2714,50 +2287,8 @@
       <c r="K47">
         <v>0.17569999396800995</v>
       </c>
-      <c r="L47">
-        <v>0.17620000243186951</v>
-      </c>
-      <c r="M47">
-        <v>0.17620000243186951</v>
-      </c>
-      <c r="N47">
-        <v>0.1761000007390976</v>
-      </c>
-      <c r="O47">
-        <v>0.17659999430179596</v>
-      </c>
-      <c r="P47">
-        <v>0.17720000445842743</v>
-      </c>
-      <c r="Q47">
-        <v>0.17759999632835388</v>
-      </c>
-      <c r="R47">
-        <v>0.17829999327659607</v>
-      </c>
-      <c r="S47">
-        <v>0.17890000343322754</v>
-      </c>
-      <c r="T47">
-        <v>0.17980000376701355</v>
-      </c>
-      <c r="U47">
-        <v>0.18029999732971191</v>
-      </c>
-      <c r="V47">
-        <v>0.1809999942779541</v>
-      </c>
-      <c r="W47">
-        <v>0.18160000443458557</v>
-      </c>
-      <c r="X47">
-        <v>0.18240000307559967</v>
-      </c>
-      <c r="Y47">
-        <v>0.18330000340938568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -2791,50 +2322,8 @@
       <c r="K48">
         <v>0.17010000348091125</v>
       </c>
-      <c r="L48">
-        <v>0.17159999907016754</v>
-      </c>
-      <c r="M48">
-        <v>0.17299999296665192</v>
-      </c>
-      <c r="N48">
-        <v>0.17360000312328339</v>
-      </c>
-      <c r="O48">
-        <v>0.17440000176429749</v>
-      </c>
-      <c r="P48">
-        <v>0.17509999871253967</v>
-      </c>
-      <c r="Q48">
-        <v>0.17669999599456787</v>
-      </c>
-      <c r="R48">
-        <v>0.17849999666213989</v>
-      </c>
-      <c r="S48">
-        <v>0.18039999902248383</v>
-      </c>
-      <c r="T48">
-        <v>0.18299999833106995</v>
-      </c>
-      <c r="U48">
-        <v>0.18569999933242798</v>
-      </c>
-      <c r="V48">
-        <v>0.18860000371932983</v>
-      </c>
-      <c r="W48">
-        <v>0.19179999828338623</v>
-      </c>
-      <c r="X48">
-        <v>0.19509999454021454</v>
-      </c>
-      <c r="Y48">
-        <v>0.19850000739097595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -2868,50 +2357,8 @@
       <c r="K49">
         <v>0.1703999936580658</v>
       </c>
-      <c r="L49">
-        <v>0.17020000517368317</v>
-      </c>
-      <c r="M49">
-        <v>0.17030000686645508</v>
-      </c>
-      <c r="N49">
-        <v>0.17010000348091125</v>
-      </c>
-      <c r="O49">
-        <v>0.17059999704360962</v>
-      </c>
-      <c r="P49">
-        <v>0.17090000212192535</v>
-      </c>
-      <c r="Q49">
-        <v>0.17120000720024109</v>
-      </c>
-      <c r="R49">
-        <v>0.17159999907016754</v>
-      </c>
-      <c r="S49">
-        <v>0.17249999940395355</v>
-      </c>
-      <c r="T49">
-        <v>0.17280000448226929</v>
-      </c>
-      <c r="U49">
-        <v>0.17350000143051147</v>
-      </c>
-      <c r="V49">
-        <v>0.17419999837875366</v>
-      </c>
-      <c r="W49">
-        <v>0.17440000176429749</v>
-      </c>
-      <c r="X49">
-        <v>0.17520000040531158</v>
-      </c>
-      <c r="Y49">
-        <v>0.1761000007390976</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
@@ -2945,50 +2392,8 @@
       <c r="K50">
         <v>0.17730000615119934</v>
       </c>
-      <c r="L50">
-        <v>0.17870000004768372</v>
-      </c>
-      <c r="M50">
-        <v>0.18000000715255737</v>
-      </c>
-      <c r="N50">
-        <v>0.18089999258518219</v>
-      </c>
-      <c r="O50">
-        <v>0.18199999630451202</v>
-      </c>
-      <c r="P50">
-        <v>0.18379999697208405</v>
-      </c>
-      <c r="Q50">
-        <v>0.18469999730587006</v>
-      </c>
-      <c r="R50">
-        <v>0.18629999458789825</v>
-      </c>
-      <c r="S50">
-        <v>0.18799999356269836</v>
-      </c>
-      <c r="T50">
-        <v>0.18999999761581421</v>
-      </c>
-      <c r="U50">
-        <v>0.19239999353885651</v>
-      </c>
-      <c r="V50">
-        <v>0.1956000030040741</v>
-      </c>
-      <c r="W50">
-        <v>0.19760000705718994</v>
-      </c>
-      <c r="X50">
-        <v>0.20139999687671661</v>
-      </c>
-      <c r="Y50">
-        <v>0.20469999313354492</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -3022,50 +2427,8 @@
       <c r="K51">
         <v>0.16789999604225159</v>
       </c>
-      <c r="L51">
-        <v>0.16859999299049377</v>
-      </c>
-      <c r="M51">
-        <v>0.16779999434947968</v>
-      </c>
-      <c r="N51">
-        <v>0.16789999604225159</v>
-      </c>
-      <c r="O51">
-        <v>0.16740000247955322</v>
-      </c>
-      <c r="P51">
-        <v>0.16809999942779541</v>
-      </c>
-      <c r="Q51">
-        <v>0.16859999299049377</v>
-      </c>
-      <c r="R51">
-        <v>0.16910000145435333</v>
-      </c>
-      <c r="S51">
-        <v>0.16979999840259552</v>
-      </c>
-      <c r="T51">
-        <v>0.17010000348091125</v>
-      </c>
-      <c r="U51">
-        <v>0.17049999535083771</v>
-      </c>
-      <c r="V51">
-        <v>0.17180000245571136</v>
-      </c>
-      <c r="W51">
-        <v>0.17209999263286591</v>
-      </c>
-      <c r="X51">
-        <v>0.17280000448226929</v>
-      </c>
-      <c r="Y51">
-        <v>0.17360000312328339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
@@ -3099,50 +2462,8 @@
       <c r="K52">
         <v>0.18459999561309814</v>
       </c>
-      <c r="L52">
-        <v>0.1867000013589859</v>
-      </c>
-      <c r="M52">
-        <v>0.18799999356269836</v>
-      </c>
-      <c r="N52">
-        <v>0.18930000066757202</v>
-      </c>
-      <c r="O52">
-        <v>0.1906999945640564</v>
-      </c>
-      <c r="P52">
-        <v>0.19210000336170197</v>
-      </c>
-      <c r="Q52">
-        <v>0.19529999792575836</v>
-      </c>
-      <c r="R52">
-        <v>0.19799999892711639</v>
-      </c>
-      <c r="S52">
-        <v>0.20180000364780426</v>
-      </c>
-      <c r="T52">
-        <v>0.2046000063419342</v>
-      </c>
-      <c r="U52">
-        <v>0.20839999616146088</v>
-      </c>
-      <c r="V52">
-        <v>0.21220000088214874</v>
-      </c>
-      <c r="W52">
-        <v>0.21549999713897705</v>
-      </c>
-      <c r="X52">
-        <v>0.21860000491142273</v>
-      </c>
-      <c r="Y52">
-        <v>0.22040000557899475</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -3176,50 +2497,8 @@
       <c r="K53">
         <v>0.19619999825954437</v>
       </c>
-      <c r="L53">
-        <v>0.19609999656677246</v>
-      </c>
-      <c r="M53">
-        <v>0.19650000333786011</v>
-      </c>
-      <c r="N53">
-        <v>0.19619999825954437</v>
-      </c>
-      <c r="O53">
-        <v>0.19720000028610229</v>
-      </c>
-      <c r="P53">
-        <v>0.19799999892711639</v>
-      </c>
-      <c r="Q53">
-        <v>0.19810000061988831</v>
-      </c>
-      <c r="R53">
-        <v>0.19869999587535858</v>
-      </c>
-      <c r="S53">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="T53">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="U53">
-        <v>0.20110000669956207</v>
-      </c>
-      <c r="V53">
-        <v>0.20229999721050262</v>
-      </c>
-      <c r="W53">
-        <v>0.20270000398159027</v>
-      </c>
-      <c r="X53">
-        <v>0.20340000092983246</v>
-      </c>
-      <c r="Y53">
-        <v>0.20350000262260437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -3253,50 +2532,8 @@
       <c r="K54">
         <v>0.19949999451637268</v>
       </c>
-      <c r="L54">
-        <v>0.20029999315738678</v>
-      </c>
-      <c r="M54">
-        <v>0.20229999721050262</v>
-      </c>
-      <c r="N54">
-        <v>0.20309999585151672</v>
-      </c>
-      <c r="O54">
-        <v>0.2046000063419342</v>
-      </c>
-      <c r="P54">
-        <v>0.20610000193119049</v>
-      </c>
-      <c r="Q54">
-        <v>0.20800000429153442</v>
-      </c>
-      <c r="R54">
-        <v>0.2093999981880188</v>
-      </c>
-      <c r="S54">
-        <v>0.21189999580383301</v>
-      </c>
-      <c r="T54">
-        <v>0.21480000019073486</v>
-      </c>
-      <c r="U54">
-        <v>0.21799999475479126</v>
-      </c>
-      <c r="V54">
-        <v>0.22200000286102295</v>
-      </c>
-      <c r="W54">
-        <v>0.22550000250339508</v>
-      </c>
-      <c r="X54">
-        <v>0.22959999740123749</v>
-      </c>
-      <c r="Y54">
-        <v>0.23190000653266907</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
@@ -3330,50 +2567,8 @@
       <c r="K55">
         <v>0.18770000338554382</v>
       </c>
-      <c r="L55">
-        <v>0.18770000338554382</v>
-      </c>
-      <c r="M55">
-        <v>0.18860000371932983</v>
-      </c>
-      <c r="N55">
-        <v>0.1882999986410141</v>
-      </c>
-      <c r="O55">
-        <v>0.18819999694824219</v>
-      </c>
-      <c r="P55">
-        <v>0.18899999558925629</v>
-      </c>
-      <c r="Q55">
-        <v>0.1898999959230423</v>
-      </c>
-      <c r="R55">
-        <v>0.19020000100135803</v>
-      </c>
-      <c r="S55">
-        <v>0.19079999625682831</v>
-      </c>
-      <c r="T55">
-        <v>0.19110000133514404</v>
-      </c>
-      <c r="U55">
-        <v>0.19220000505447388</v>
-      </c>
-      <c r="V55">
-        <v>0.19269999861717224</v>
-      </c>
-      <c r="W55">
-        <v>0.19370000064373016</v>
-      </c>
-      <c r="X55">
-        <v>0.19470000267028809</v>
-      </c>
-      <c r="Y55">
-        <v>0.19429999589920044</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="5" t="s">
         <v>59</v>
       </c>
@@ -3407,50 +2602,8 @@
       <c r="K56">
         <v>0.17569999396800995</v>
       </c>
-      <c r="L56">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="M56">
-        <v>0.17890000343322754</v>
-      </c>
-      <c r="N56">
-        <v>0.17949999868869781</v>
-      </c>
-      <c r="O56">
-        <v>0.18000000715255737</v>
-      </c>
-      <c r="P56">
-        <v>0.18109999597072601</v>
-      </c>
-      <c r="Q56">
-        <v>0.18320000171661377</v>
-      </c>
-      <c r="R56">
-        <v>0.1859000027179718</v>
-      </c>
-      <c r="S56">
-        <v>0.18940000236034393</v>
-      </c>
-      <c r="T56">
-        <v>0.19259999692440033</v>
-      </c>
-      <c r="U56">
-        <v>0.1964000016450882</v>
-      </c>
-      <c r="V56">
-        <v>0.1996999979019165</v>
-      </c>
-      <c r="W56">
-        <v>0.20319999754428864</v>
-      </c>
-      <c r="X56">
-        <v>0.20730000734329224</v>
-      </c>
-      <c r="Y56">
-        <v>0.2093999981880188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5" t="s">
         <v>60</v>
       </c>
@@ -3484,50 +2637,8 @@
       <c r="K57">
         <v>0.17180000245571136</v>
       </c>
-      <c r="L57">
-        <v>0.17149999737739563</v>
-      </c>
-      <c r="M57">
-        <v>0.17209999263286591</v>
-      </c>
-      <c r="N57">
-        <v>0.17139999568462372</v>
-      </c>
-      <c r="O57">
-        <v>0.17229999601840973</v>
-      </c>
-      <c r="P57">
-        <v>0.17260000109672546</v>
-      </c>
-      <c r="Q57">
-        <v>0.17350000143051147</v>
-      </c>
-      <c r="R57">
-        <v>0.17399999499320984</v>
-      </c>
-      <c r="S57">
-        <v>0.17440000176429749</v>
-      </c>
-      <c r="T57">
-        <v>0.17509999871253967</v>
-      </c>
-      <c r="U57">
-        <v>0.1761000007390976</v>
-      </c>
-      <c r="V57">
-        <v>0.17739999294281006</v>
-      </c>
-      <c r="W57">
-        <v>0.17769999802112579</v>
-      </c>
-      <c r="X57">
-        <v>0.17839999496936798</v>
-      </c>
-      <c r="Y57">
-        <v>0.17870000004768372</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5" t="s">
         <v>61</v>
       </c>
@@ -3561,50 +2672,8 @@
       <c r="K58">
         <v>0.16619999706745148</v>
       </c>
-      <c r="L58">
-        <v>0.16760000586509705</v>
-      </c>
-      <c r="M58">
-        <v>0.16869999468326569</v>
-      </c>
-      <c r="N58">
-        <v>0.1687999963760376</v>
-      </c>
-      <c r="O58">
-        <v>0.16949999332427979</v>
-      </c>
-      <c r="P58">
-        <v>0.17080000042915344</v>
-      </c>
-      <c r="Q58">
-        <v>0.17270000278949738</v>
-      </c>
-      <c r="R58">
-        <v>0.17389999330043793</v>
-      </c>
-      <c r="S58">
-        <v>0.17640000581741333</v>
-      </c>
-      <c r="T58">
-        <v>0.17910000681877136</v>
-      </c>
-      <c r="U58">
-        <v>0.18209999799728394</v>
-      </c>
-      <c r="V58">
-        <v>0.18549999594688416</v>
-      </c>
-      <c r="W58">
-        <v>0.18899999558925629</v>
-      </c>
-      <c r="X58">
-        <v>0.19239999353885651</v>
-      </c>
-      <c r="Y58">
-        <v>0.19539999961853027</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="5" t="s">
         <v>62</v>
       </c>
@@ -3638,50 +2707,8 @@
       <c r="K59">
         <v>0.1679999977350235</v>
       </c>
-      <c r="L59">
-        <v>0.16789999604225159</v>
-      </c>
-      <c r="M59">
-        <v>0.16830000281333923</v>
-      </c>
-      <c r="N59">
-        <v>0.16840000450611115</v>
-      </c>
-      <c r="O59">
-        <v>0.16820000112056732</v>
-      </c>
-      <c r="P59">
-        <v>0.16859999299049377</v>
-      </c>
-      <c r="Q59">
-        <v>0.16930000483989716</v>
-      </c>
-      <c r="R59">
-        <v>0.1695999950170517</v>
-      </c>
-      <c r="S59">
-        <v>0.17080000042915344</v>
-      </c>
-      <c r="T59">
-        <v>0.17110000550746918</v>
-      </c>
-      <c r="U59">
-        <v>0.17219999432563782</v>
-      </c>
-      <c r="V59">
-        <v>0.17249999940395355</v>
-      </c>
-      <c r="W59">
-        <v>0.17319999635219574</v>
-      </c>
-      <c r="X59">
-        <v>0.17389999330043793</v>
-      </c>
-      <c r="Y59">
-        <v>0.17440000176429749</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -3715,50 +2742,8 @@
       <c r="K60">
         <v>0.18039999902248383</v>
       </c>
-      <c r="L60">
-        <v>0.18189999461174011</v>
-      </c>
-      <c r="M60">
-        <v>0.18340000510215759</v>
-      </c>
-      <c r="N60">
-        <v>0.18459999561309814</v>
-      </c>
-      <c r="O60">
-        <v>0.18580000102519989</v>
-      </c>
-      <c r="P60">
-        <v>0.18619999289512634</v>
-      </c>
-      <c r="Q60">
-        <v>0.18739999830722809</v>
-      </c>
-      <c r="R60">
-        <v>0.18889999389648438</v>
-      </c>
-      <c r="S60">
-        <v>0.19040000438690186</v>
-      </c>
-      <c r="T60">
-        <v>0.19259999692440033</v>
-      </c>
-      <c r="U60">
-        <v>0.19589999318122864</v>
-      </c>
-      <c r="V60">
-        <v>0.19850000739097595</v>
-      </c>
-      <c r="W60">
-        <v>0.20149999856948853</v>
-      </c>
-      <c r="X60">
-        <v>0.20419999957084656</v>
-      </c>
-      <c r="Y60">
-        <v>0.20690000057220459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
@@ -3792,50 +2777,8 @@
       <c r="K61">
         <v>0.16840000450611115</v>
       </c>
-      <c r="L61">
-        <v>0.16820000112056732</v>
-      </c>
-      <c r="M61">
-        <v>0.1679999977350235</v>
-      </c>
-      <c r="N61">
-        <v>0.16789999604225159</v>
-      </c>
-      <c r="O61">
-        <v>0.16820000112056732</v>
-      </c>
-      <c r="P61">
-        <v>0.16850000619888306</v>
-      </c>
-      <c r="Q61">
-        <v>0.16889999806880951</v>
-      </c>
-      <c r="R61">
-        <v>0.16949999332427979</v>
-      </c>
-      <c r="S61">
-        <v>0.17010000348091125</v>
-      </c>
-      <c r="T61">
-        <v>0.17030000686645508</v>
-      </c>
-      <c r="U61">
-        <v>0.17139999568462372</v>
-      </c>
-      <c r="V61">
-        <v>0.17239999771118164</v>
-      </c>
-      <c r="W61">
-        <v>0.17260000109672546</v>
-      </c>
-      <c r="X61">
-        <v>0.17339999973773956</v>
-      </c>
-      <c r="Y61">
-        <v>0.17360000312328339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="5" t="s">
         <v>65</v>
       </c>
@@ -3869,50 +2812,8 @@
       <c r="K62">
         <v>0.17080000042915344</v>
       </c>
-      <c r="L62">
-        <v>0.17229999601840973</v>
-      </c>
-      <c r="M62">
-        <v>0.17329999804496765</v>
-      </c>
-      <c r="N62">
-        <v>0.17489999532699585</v>
-      </c>
-      <c r="O62">
-        <v>0.17599999904632568</v>
-      </c>
-      <c r="P62">
-        <v>0.17749999463558197</v>
-      </c>
-      <c r="Q62">
-        <v>0.17880000174045563</v>
-      </c>
-      <c r="R62">
-        <v>0.18019999563694</v>
-      </c>
-      <c r="S62">
-        <v>0.1817999929189682</v>
-      </c>
-      <c r="T62">
-        <v>0.18289999663829803</v>
-      </c>
-      <c r="U62">
-        <v>0.18549999594688416</v>
-      </c>
-      <c r="V62">
-        <v>0.18739999830722809</v>
-      </c>
-      <c r="W62">
-        <v>0.19009999930858612</v>
-      </c>
-      <c r="X62">
-        <v>0.19300000369548798</v>
-      </c>
-      <c r="Y62">
-        <v>0.19580000638961792</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="5" t="s">
         <v>66</v>
       </c>
@@ -3946,50 +2847,8 @@
       <c r="K63">
         <v>0.17489999532699585</v>
       </c>
-      <c r="L63">
-        <v>0.1745000034570694</v>
-      </c>
-      <c r="M63">
-        <v>0.17419999837875366</v>
-      </c>
-      <c r="N63">
-        <v>0.17419999837875366</v>
-      </c>
-      <c r="O63">
-        <v>0.17479999363422394</v>
-      </c>
-      <c r="P63">
-        <v>0.17380000650882721</v>
-      </c>
-      <c r="Q63">
-        <v>0.17479999363422394</v>
-      </c>
-      <c r="R63">
-        <v>0.17509999871253967</v>
-      </c>
-      <c r="S63">
-        <v>0.17550000548362732</v>
-      </c>
-      <c r="T63">
-        <v>0.17569999396800995</v>
-      </c>
-      <c r="U63">
-        <v>0.17659999430179596</v>
-      </c>
-      <c r="V63">
-        <v>0.17679999768733978</v>
-      </c>
-      <c r="W63">
-        <v>0.17739999294281006</v>
-      </c>
-      <c r="X63">
-        <v>0.17790000140666962</v>
-      </c>
-      <c r="Y63">
-        <v>0.17919999361038208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="5" t="s">
         <v>67</v>
       </c>
@@ -4023,50 +2882,8 @@
       <c r="K64">
         <v>0.18199999630451202</v>
       </c>
-      <c r="L64">
-        <v>0.18289999663829803</v>
-      </c>
-      <c r="M64">
-        <v>0.1835000067949295</v>
-      </c>
-      <c r="N64">
-        <v>0.18520000576972961</v>
-      </c>
-      <c r="O64">
-        <v>0.18680000305175781</v>
-      </c>
-      <c r="P64">
-        <v>0.18840000033378601</v>
-      </c>
-      <c r="Q64">
-        <v>0.18970000743865967</v>
-      </c>
-      <c r="R64">
-        <v>0.19159999489784241</v>
-      </c>
-      <c r="S64">
-        <v>0.19339999556541443</v>
-      </c>
-      <c r="T64">
-        <v>0.19589999318122864</v>
-      </c>
-      <c r="U64">
-        <v>0.1988999992609024</v>
-      </c>
-      <c r="V64">
-        <v>0.20280000567436218</v>
-      </c>
-      <c r="W64">
-        <v>0.20640000700950623</v>
-      </c>
-      <c r="X64">
-        <v>0.210999995470047</v>
-      </c>
-      <c r="Y64">
-        <v>0.21559999883174896</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="5" t="s">
         <v>68</v>
       </c>
@@ -4100,50 +2917,8 @@
       <c r="K65">
         <v>0.18330000340938568</v>
       </c>
-      <c r="L65">
-        <v>0.18340000510215759</v>
-      </c>
-      <c r="M65">
-        <v>0.1835000067949295</v>
-      </c>
-      <c r="N65">
-        <v>0.18330000340938568</v>
-      </c>
-      <c r="O65">
-        <v>0.18369999527931213</v>
-      </c>
-      <c r="P65">
-        <v>0.18440000712871552</v>
-      </c>
-      <c r="Q65">
-        <v>0.18449999392032623</v>
-      </c>
-      <c r="R65">
-        <v>0.18500000238418579</v>
-      </c>
-      <c r="S65">
-        <v>0.18490000069141388</v>
-      </c>
-      <c r="T65">
-        <v>0.18549999594688416</v>
-      </c>
-      <c r="U65">
-        <v>0.18619999289512634</v>
-      </c>
-      <c r="V65">
-        <v>0.18649999797344208</v>
-      </c>
-      <c r="W65">
-        <v>0.18680000305175781</v>
-      </c>
-      <c r="X65">
-        <v>0.18780000507831573</v>
-      </c>
-      <c r="Y65">
-        <v>0.18840000033378601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="5" t="s">
         <v>69</v>
       </c>
@@ -4177,50 +2952,8 @@
       <c r="K66">
         <v>0.17069999873638153</v>
       </c>
-      <c r="L66">
-        <v>0.17249999940395355</v>
-      </c>
-      <c r="M66">
-        <v>0.17399999499320984</v>
-      </c>
-      <c r="N66">
-        <v>0.17540000379085541</v>
-      </c>
-      <c r="O66">
-        <v>0.1761000007390976</v>
-      </c>
-      <c r="P66">
-        <v>0.17790000140666962</v>
-      </c>
-      <c r="Q66">
-        <v>0.1793999969959259</v>
-      </c>
-      <c r="R66">
-        <v>0.18080000579357147</v>
-      </c>
-      <c r="S66">
-        <v>0.18320000171661377</v>
-      </c>
-      <c r="T66">
-        <v>0.18559999763965607</v>
-      </c>
-      <c r="U66">
-        <v>0.18889999389648438</v>
-      </c>
-      <c r="V66">
-        <v>0.19189999997615814</v>
-      </c>
-      <c r="W66">
-        <v>0.19580000638961792</v>
-      </c>
-      <c r="X66">
-        <v>0.20010000467300415</v>
-      </c>
-      <c r="Y66">
-        <v>0.20479999482631683</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="5" t="s">
         <v>70</v>
       </c>
@@ -4254,50 +2987,8 @@
       <c r="K67">
         <v>0.18039999902248383</v>
       </c>
-      <c r="L67">
-        <v>0.18009999394416809</v>
-      </c>
-      <c r="M67">
-        <v>0.18050000071525574</v>
-      </c>
-      <c r="N67">
-        <v>0.18070000410079956</v>
-      </c>
-      <c r="O67">
-        <v>0.1809999942779541</v>
-      </c>
-      <c r="P67">
-        <v>0.18119999766349792</v>
-      </c>
-      <c r="Q67">
-        <v>0.18089999258518219</v>
-      </c>
-      <c r="R67">
-        <v>0.18150000274181366</v>
-      </c>
-      <c r="S67">
-        <v>0.18209999799728394</v>
-      </c>
-      <c r="T67">
-        <v>0.18219999969005585</v>
-      </c>
-      <c r="U67">
-        <v>0.18320000171661377</v>
-      </c>
-      <c r="V67">
-        <v>0.18359999358654022</v>
-      </c>
-      <c r="W67">
-        <v>0.18420000374317169</v>
-      </c>
-      <c r="X67">
-        <v>0.18410000205039978</v>
-      </c>
-      <c r="Y67">
-        <v>0.18449999392032623</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="5" t="s">
         <v>71</v>
       </c>
@@ -4331,50 +3022,8 @@
       <c r="K68">
         <v>0.16949999332427979</v>
       </c>
-      <c r="L68">
-        <v>0.17020000517368317</v>
-      </c>
-      <c r="M68">
-        <v>0.17209999263286591</v>
-      </c>
-      <c r="N68">
-        <v>0.17319999635219574</v>
-      </c>
-      <c r="O68">
-        <v>0.17470000684261322</v>
-      </c>
-      <c r="P68">
-        <v>0.17620000243186951</v>
-      </c>
-      <c r="Q68">
-        <v>0.17749999463558197</v>
-      </c>
-      <c r="R68">
-        <v>0.17890000343322754</v>
-      </c>
-      <c r="S68">
-        <v>0.18170000612735748</v>
-      </c>
-      <c r="T68">
-        <v>0.18449999392032623</v>
-      </c>
-      <c r="U68">
-        <v>0.18799999356269836</v>
-      </c>
-      <c r="V68">
-        <v>0.19089999794960022</v>
-      </c>
-      <c r="W68">
-        <v>0.19550000131130219</v>
-      </c>
-      <c r="X68">
-        <v>0.19979999959468842</v>
-      </c>
-      <c r="Y68">
-        <v>0.20430000126361847</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="5" t="s">
         <v>72</v>
       </c>
@@ -4408,50 +3057,8 @@
       <c r="K69">
         <v>0.18119999766349792</v>
       </c>
-      <c r="L69">
-        <v>0.18150000274181366</v>
-      </c>
-      <c r="M69">
-        <v>0.18219999969005585</v>
-      </c>
-      <c r="N69">
-        <v>0.18150000274181366</v>
-      </c>
-      <c r="O69">
-        <v>0.18140000104904175</v>
-      </c>
-      <c r="P69">
-        <v>0.18209999799728394</v>
-      </c>
-      <c r="Q69">
-        <v>0.18219999969005585</v>
-      </c>
-      <c r="R69">
-        <v>0.18219999969005585</v>
-      </c>
-      <c r="S69">
-        <v>0.18250000476837158</v>
-      </c>
-      <c r="T69">
-        <v>0.18269999325275421</v>
-      </c>
-      <c r="U69">
-        <v>0.18330000340938568</v>
-      </c>
-      <c r="V69">
-        <v>0.18340000510215759</v>
-      </c>
-      <c r="W69">
-        <v>0.18340000510215759</v>
-      </c>
-      <c r="X69">
-        <v>0.1843000054359436</v>
-      </c>
-      <c r="Y69">
-        <v>0.1851000040769577</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="5" t="s">
         <v>73</v>
       </c>
@@ -4485,50 +3092,8 @@
       <c r="K70">
         <v>0.1648000031709671</v>
       </c>
-      <c r="L70">
-        <v>0.16599999368190765</v>
-      </c>
-      <c r="M70">
-        <v>0.16809999942779541</v>
-      </c>
-      <c r="N70">
-        <v>0.16990000009536743</v>
-      </c>
-      <c r="O70">
-        <v>0.17090000212192535</v>
-      </c>
-      <c r="P70">
-        <v>0.17229999601840973</v>
-      </c>
-      <c r="Q70">
-        <v>0.17399999499320984</v>
-      </c>
-      <c r="R70">
-        <v>0.17589999735355377</v>
-      </c>
-      <c r="S70">
-        <v>0.17949999868869781</v>
-      </c>
-      <c r="T70">
-        <v>0.18250000476837158</v>
-      </c>
-      <c r="U70">
-        <v>0.18629999458789825</v>
-      </c>
-      <c r="V70">
-        <v>0.1906999945640564</v>
-      </c>
-      <c r="W70">
-        <v>0.19519999623298645</v>
-      </c>
-      <c r="X70">
-        <v>0.20010000467300415</v>
-      </c>
-      <c r="Y70">
-        <v>0.20520000159740448</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="5" t="s">
         <v>74</v>
       </c>
@@ -4562,50 +3127,8 @@
       <c r="K71">
         <v>0.16670000553131104</v>
       </c>
-      <c r="L71">
-        <v>0.16689999401569366</v>
-      </c>
-      <c r="M71">
-        <v>0.16709999740123749</v>
-      </c>
-      <c r="N71">
-        <v>0.1671999990940094</v>
-      </c>
-      <c r="O71">
-        <v>0.16730000078678131</v>
-      </c>
-      <c r="P71">
-        <v>0.16769999265670776</v>
-      </c>
-      <c r="Q71">
-        <v>0.16779999434947968</v>
-      </c>
-      <c r="R71">
-        <v>0.16779999434947968</v>
-      </c>
-      <c r="S71">
-        <v>0.16840000450611115</v>
-      </c>
-      <c r="T71">
-        <v>0.1687999963760376</v>
-      </c>
-      <c r="U71">
-        <v>0.16930000483989716</v>
-      </c>
-      <c r="V71">
-        <v>0.16979999840259552</v>
-      </c>
-      <c r="W71">
-        <v>0.16990000009536743</v>
-      </c>
-      <c r="X71">
-        <v>0.1703999936580658</v>
-      </c>
-      <c r="Y71">
-        <v>0.17100000381469727</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="5" t="s">
         <v>75</v>
       </c>
@@ -4639,50 +3162,8 @@
       <c r="K72">
         <v>0.16419999301433563</v>
       </c>
-      <c r="L72">
-        <v>0.16609999537467957</v>
-      </c>
-      <c r="M72">
-        <v>0.16779999434947968</v>
-      </c>
-      <c r="N72">
-        <v>0.16930000483989716</v>
-      </c>
-      <c r="O72">
-        <v>0.17069999873638153</v>
-      </c>
-      <c r="P72">
-        <v>0.17170000076293945</v>
-      </c>
-      <c r="Q72">
-        <v>0.17380000650882721</v>
-      </c>
-      <c r="R72">
-        <v>0.17569999396800995</v>
-      </c>
-      <c r="S72">
-        <v>0.17829999327659607</v>
-      </c>
-      <c r="T72">
-        <v>0.18119999766349792</v>
-      </c>
-      <c r="U72">
-        <v>0.18420000374317169</v>
-      </c>
-      <c r="V72">
-        <v>0.18760000169277191</v>
-      </c>
-      <c r="W72">
-        <v>0.19159999489784241</v>
-      </c>
-      <c r="X72">
-        <v>0.19599999487400055</v>
-      </c>
-      <c r="Y72">
-        <v>0.20010000467300415</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="5" t="s">
         <v>76</v>
       </c>
@@ -4716,50 +3197,8 @@
       <c r="K73">
         <v>0.17640000581741333</v>
       </c>
-      <c r="L73">
-        <v>0.17720000445842743</v>
-      </c>
-      <c r="M73">
-        <v>0.17759999632835388</v>
-      </c>
-      <c r="N73">
-        <v>0.17739999294281006</v>
-      </c>
-      <c r="O73">
-        <v>0.17689999938011169</v>
-      </c>
-      <c r="P73">
-        <v>0.17700000107288361</v>
-      </c>
-      <c r="Q73">
-        <v>0.17659999430179596</v>
-      </c>
-      <c r="R73">
-        <v>0.17659999430179596</v>
-      </c>
-      <c r="S73">
-        <v>0.17689999938011169</v>
-      </c>
-      <c r="T73">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="U73">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="V73">
-        <v>0.17769999802112579</v>
-      </c>
-      <c r="W73">
-        <v>0.17769999802112579</v>
-      </c>
-      <c r="X73">
-        <v>0.17829999327659607</v>
-      </c>
-      <c r="Y73">
-        <v>0.17880000174045563</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="5" t="s">
         <v>77</v>
       </c>
@@ -4793,50 +3232,8 @@
       <c r="K74">
         <v>0.16359999775886536</v>
       </c>
-      <c r="L74">
-        <v>0.16519999504089355</v>
-      </c>
-      <c r="M74">
-        <v>0.16680000722408295</v>
-      </c>
-      <c r="N74">
-        <v>0.16809999942779541</v>
-      </c>
-      <c r="O74">
-        <v>0.16920000314712524</v>
-      </c>
-      <c r="P74">
-        <v>0.17080000042915344</v>
-      </c>
-      <c r="Q74">
-        <v>0.17229999601840973</v>
-      </c>
-      <c r="R74">
-        <v>0.1745000034570694</v>
-      </c>
-      <c r="S74">
-        <v>0.17649999260902405</v>
-      </c>
-      <c r="T74">
-        <v>0.17960000038146973</v>
-      </c>
-      <c r="U74">
-        <v>0.18320000171661377</v>
-      </c>
-      <c r="V74">
-        <v>0.18780000507831573</v>
-      </c>
-      <c r="W74">
-        <v>0.19200000166893005</v>
-      </c>
-      <c r="X74">
-        <v>0.19619999825954437</v>
-      </c>
-      <c r="Y74">
-        <v>0.20200000703334808</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5" t="s">
         <v>78</v>
       </c>
@@ -4870,50 +3267,8 @@
       <c r="K75">
         <v>0.16850000619888306</v>
       </c>
-      <c r="L75">
-        <v>0.1687999963760376</v>
-      </c>
-      <c r="M75">
-        <v>0.16850000619888306</v>
-      </c>
-      <c r="N75">
-        <v>0.16840000450611115</v>
-      </c>
-      <c r="O75">
-        <v>0.1679999977350235</v>
-      </c>
-      <c r="P75">
-        <v>0.16859999299049377</v>
-      </c>
-      <c r="Q75">
-        <v>0.16889999806880951</v>
-      </c>
-      <c r="R75">
-        <v>0.16869999468326569</v>
-      </c>
-      <c r="S75">
-        <v>0.1687999963760376</v>
-      </c>
-      <c r="T75">
-        <v>0.1687999963760376</v>
-      </c>
-      <c r="U75">
-        <v>0.16910000145435333</v>
-      </c>
-      <c r="V75">
-        <v>0.16930000483989716</v>
-      </c>
-      <c r="W75">
-        <v>0.16979999840259552</v>
-      </c>
-      <c r="X75">
-        <v>0.17049999535083771</v>
-      </c>
-      <c r="Y75">
-        <v>0.17059999704360962</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="5" t="s">
         <v>79</v>
       </c>
@@ -4947,50 +3302,8 @@
       <c r="K76">
         <v>0.18490000069141388</v>
       </c>
-      <c r="L76">
-        <v>0.18680000305175781</v>
-      </c>
-      <c r="M76">
-        <v>0.18760000169277191</v>
-      </c>
-      <c r="N76">
-        <v>0.18960000574588776</v>
-      </c>
-      <c r="O76">
-        <v>0.19040000438690186</v>
-      </c>
-      <c r="P76">
-        <v>0.19200000166893005</v>
-      </c>
-      <c r="Q76">
-        <v>0.19349999725818634</v>
-      </c>
-      <c r="R76">
-        <v>0.19539999961853027</v>
-      </c>
-      <c r="S76">
-        <v>0.19850000739097595</v>
-      </c>
-      <c r="T76">
-        <v>0.2012999951839447</v>
-      </c>
-      <c r="U76">
-        <v>0.20450000464916229</v>
-      </c>
-      <c r="V76">
-        <v>0.20819999277591705</v>
-      </c>
-      <c r="W76">
-        <v>0.21170000731945038</v>
-      </c>
-      <c r="X76">
-        <v>0.21629999577999115</v>
-      </c>
-      <c r="Y76">
-        <v>0.22220000624656677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5" t="s">
         <v>80</v>
       </c>
@@ -5024,50 +3337,8 @@
       <c r="K77">
         <v>0.18469999730587006</v>
       </c>
-      <c r="L77">
-        <v>0.18520000576972961</v>
-      </c>
-      <c r="M77">
-        <v>0.18490000069141388</v>
-      </c>
-      <c r="N77">
-        <v>0.18529999256134033</v>
-      </c>
-      <c r="O77">
-        <v>0.18500000238418579</v>
-      </c>
-      <c r="P77">
-        <v>0.1859000027179718</v>
-      </c>
-      <c r="Q77">
-        <v>0.18600000441074371</v>
-      </c>
-      <c r="R77">
-        <v>0.18569999933242798</v>
-      </c>
-      <c r="S77">
-        <v>0.18649999797344208</v>
-      </c>
-      <c r="T77">
-        <v>0.1867000013589859</v>
-      </c>
-      <c r="U77">
-        <v>0.18680000305175781</v>
-      </c>
-      <c r="V77">
-        <v>0.18709999322891235</v>
-      </c>
-      <c r="W77">
-        <v>0.1875</v>
-      </c>
-      <c r="X77">
-        <v>0.18799999356269836</v>
-      </c>
-      <c r="Y77">
-        <v>0.18860000371932983</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5" t="s">
         <v>81</v>
       </c>
@@ -5101,50 +3372,8 @@
       <c r="K78">
         <v>0.1859000027179718</v>
       </c>
-      <c r="L78">
-        <v>0.18739999830722809</v>
-      </c>
-      <c r="M78">
-        <v>0.18850000202655792</v>
-      </c>
-      <c r="N78">
-        <v>0.18979999423027039</v>
-      </c>
-      <c r="O78">
-        <v>0.19079999625682831</v>
-      </c>
-      <c r="P78">
-        <v>0.19249999523162842</v>
-      </c>
-      <c r="Q78">
-        <v>0.19460000097751617</v>
-      </c>
-      <c r="R78">
-        <v>0.1956000030040741</v>
-      </c>
-      <c r="S78">
-        <v>0.19900000095367432</v>
-      </c>
-      <c r="T78">
-        <v>0.20180000364780426</v>
-      </c>
-      <c r="U78">
-        <v>0.20479999482631683</v>
-      </c>
-      <c r="V78">
-        <v>0.20819999277591705</v>
-      </c>
-      <c r="W78">
-        <v>0.2125999927520752</v>
-      </c>
-      <c r="X78">
-        <v>0.21729999780654907</v>
-      </c>
-      <c r="Y78">
-        <v>0.22220000624656677</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5" t="s">
         <v>82</v>
       </c>
@@ -5178,50 +3407,8 @@
       <c r="K79">
         <v>0.18479999899864197</v>
       </c>
-      <c r="L79">
-        <v>0.18559999763965607</v>
-      </c>
-      <c r="M79">
-        <v>0.18569999933242798</v>
-      </c>
-      <c r="N79">
-        <v>0.18539999425411224</v>
-      </c>
-      <c r="O79">
-        <v>0.18529999256134033</v>
-      </c>
-      <c r="P79">
-        <v>0.1859000027179718</v>
-      </c>
-      <c r="Q79">
-        <v>0.18639999628067017</v>
-      </c>
-      <c r="R79">
-        <v>0.18659999966621399</v>
-      </c>
-      <c r="S79">
-        <v>0.18700000643730164</v>
-      </c>
-      <c r="T79">
-        <v>0.1875</v>
-      </c>
-      <c r="U79">
-        <v>0.1882999986410141</v>
-      </c>
-      <c r="V79">
-        <v>0.1882999986410141</v>
-      </c>
-      <c r="W79">
-        <v>0.18819999694824219</v>
-      </c>
-      <c r="X79">
-        <v>0.18950000405311584</v>
-      </c>
-      <c r="Y79">
-        <v>0.18960000574588776</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="5" t="s">
         <v>83</v>
       </c>
@@ -5255,50 +3442,8 @@
       <c r="K80">
         <v>0.1793999969959259</v>
       </c>
-      <c r="L80">
-        <v>0.18060000240802765</v>
-      </c>
-      <c r="M80">
-        <v>0.18230000138282776</v>
-      </c>
-      <c r="N80">
-        <v>0.18340000510215759</v>
-      </c>
-      <c r="O80">
-        <v>0.18569999933242798</v>
-      </c>
-      <c r="P80">
-        <v>0.18719999492168427</v>
-      </c>
-      <c r="Q80">
-        <v>0.18930000066757202</v>
-      </c>
-      <c r="R80">
-        <v>0.19110000133514404</v>
-      </c>
-      <c r="S80">
-        <v>0.19349999725818634</v>
-      </c>
-      <c r="T80">
-        <v>0.19730000197887421</v>
-      </c>
-      <c r="U80">
-        <v>0.2012999951839447</v>
-      </c>
-      <c r="V80">
-        <v>0.20550000667572021</v>
-      </c>
-      <c r="W80">
-        <v>0.20999999344348907</v>
-      </c>
-      <c r="X80">
-        <v>0.21500000357627869</v>
-      </c>
-      <c r="Y80">
-        <v>0.22089999914169312</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5" t="s">
         <v>84</v>
       </c>
@@ -5332,50 +3477,8 @@
       <c r="K81">
         <v>0.16709999740123749</v>
       </c>
-      <c r="L81">
-        <v>0.16789999604225159</v>
-      </c>
-      <c r="M81">
-        <v>0.16789999604225159</v>
-      </c>
-      <c r="N81">
-        <v>0.16789999604225159</v>
-      </c>
-      <c r="O81">
-        <v>0.16850000619888306</v>
-      </c>
-      <c r="P81">
-        <v>0.16899999976158142</v>
-      </c>
-      <c r="Q81">
-        <v>0.16930000483989716</v>
-      </c>
-      <c r="R81">
-        <v>0.16899999976158142</v>
-      </c>
-      <c r="S81">
-        <v>0.16930000483989716</v>
-      </c>
-      <c r="T81">
-        <v>0.16990000009536743</v>
-      </c>
-      <c r="U81">
-        <v>0.17069999873638153</v>
-      </c>
-      <c r="V81">
-        <v>0.17129999399185181</v>
-      </c>
-      <c r="W81">
-        <v>0.17149999737739563</v>
-      </c>
-      <c r="X81">
-        <v>0.17219999432563782</v>
-      </c>
-      <c r="Y81">
-        <v>0.17270000278949738</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="5" t="s">
         <v>85</v>
       </c>
@@ -5409,50 +3512,8 @@
       <c r="K82">
         <v>0.17059999704360962</v>
       </c>
-      <c r="L82">
-        <v>0.17270000278949738</v>
-      </c>
-      <c r="M82">
-        <v>0.17399999499320984</v>
-      </c>
-      <c r="N82">
-        <v>0.17479999363422394</v>
-      </c>
-      <c r="O82">
-        <v>0.17649999260902405</v>
-      </c>
-      <c r="P82">
-        <v>0.17829999327659607</v>
-      </c>
-      <c r="Q82">
-        <v>0.18119999766349792</v>
-      </c>
-      <c r="R82">
-        <v>0.18310000002384186</v>
-      </c>
-      <c r="S82">
-        <v>0.18529999256134033</v>
-      </c>
-      <c r="T82">
-        <v>0.18850000202655792</v>
-      </c>
-      <c r="U82">
-        <v>0.19239999353885651</v>
-      </c>
-      <c r="V82">
-        <v>0.19619999825954437</v>
-      </c>
-      <c r="W82">
-        <v>0.20080000162124634</v>
-      </c>
-      <c r="X82">
-        <v>0.20520000159740448</v>
-      </c>
-      <c r="Y82">
-        <v>0.21050000190734863</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="5" t="s">
         <v>86</v>
       </c>
@@ -5486,50 +3547,8 @@
       <c r="K83">
         <v>0.16990000009536743</v>
       </c>
-      <c r="L83">
-        <v>0.17069999873638153</v>
-      </c>
-      <c r="M83">
-        <v>0.17059999704360962</v>
-      </c>
-      <c r="N83">
-        <v>0.17059999704360962</v>
-      </c>
-      <c r="O83">
-        <v>0.1703999936580658</v>
-      </c>
-      <c r="P83">
-        <v>0.17069999873638153</v>
-      </c>
-      <c r="Q83">
-        <v>0.17110000550746918</v>
-      </c>
-      <c r="R83">
-        <v>0.17080000042915344</v>
-      </c>
-      <c r="S83">
-        <v>0.17149999737739563</v>
-      </c>
-      <c r="T83">
-        <v>0.17219999432563782</v>
-      </c>
-      <c r="U83">
-        <v>0.17209999263286591</v>
-      </c>
-      <c r="V83">
-        <v>0.17260000109672546</v>
-      </c>
-      <c r="W83">
-        <v>0.17260000109672546</v>
-      </c>
-      <c r="X83">
-        <v>0.1729000061750412</v>
-      </c>
-      <c r="Y83">
-        <v>0.17350000143051147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="5" t="s">
         <v>87</v>
       </c>
@@ -5563,50 +3582,8 @@
       <c r="K84">
         <v>0.16570000350475311</v>
       </c>
-      <c r="L84">
-        <v>0.16760000586509705</v>
-      </c>
-      <c r="M84">
-        <v>0.16910000145435333</v>
-      </c>
-      <c r="N84">
-        <v>0.17020000517368317</v>
-      </c>
-      <c r="O84">
-        <v>0.17200000584125519</v>
-      </c>
-      <c r="P84">
-        <v>0.17399999499320984</v>
-      </c>
-      <c r="Q84">
-        <v>0.17499999701976776</v>
-      </c>
-      <c r="R84">
-        <v>0.17739999294281006</v>
-      </c>
-      <c r="S84">
-        <v>0.18050000071525574</v>
-      </c>
-      <c r="T84">
-        <v>0.18410000205039978</v>
-      </c>
-      <c r="U84">
-        <v>0.18790000677108765</v>
-      </c>
-      <c r="V84">
-        <v>0.19259999692440033</v>
-      </c>
-      <c r="W84">
-        <v>0.19730000197887421</v>
-      </c>
-      <c r="X84">
-        <v>0.20239999890327454</v>
-      </c>
-      <c r="Y84">
-        <v>0.20819999277591705</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="5" t="s">
         <v>88</v>
       </c>
@@ -5640,50 +3617,8 @@
       <c r="K85">
         <v>0.17640000581741333</v>
       </c>
-      <c r="L85">
-        <v>0.17679999768733978</v>
-      </c>
-      <c r="M85">
-        <v>0.17700000107288361</v>
-      </c>
-      <c r="N85">
-        <v>0.17679999768733978</v>
-      </c>
-      <c r="O85">
-        <v>0.17659999430179596</v>
-      </c>
-      <c r="P85">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="Q85">
-        <v>0.17710000276565552</v>
-      </c>
-      <c r="R85">
-        <v>0.17640000581741333</v>
-      </c>
-      <c r="S85">
-        <v>0.17640000581741333</v>
-      </c>
-      <c r="T85">
-        <v>0.17640000581741333</v>
-      </c>
-      <c r="U85">
-        <v>0.17710000276565552</v>
-      </c>
-      <c r="V85">
-        <v>0.17720000445842743</v>
-      </c>
-      <c r="W85">
-        <v>0.17779999971389771</v>
-      </c>
-      <c r="X85">
-        <v>0.17779999971389771</v>
-      </c>
-      <c r="Y85">
-        <v>0.17829999327659607</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="5" t="s">
         <v>89</v>
       </c>
@@ -5717,50 +3652,8 @@
       <c r="K86">
         <v>0.17540000379085541</v>
       </c>
-      <c r="L86">
-        <v>0.17720000445842743</v>
-      </c>
-      <c r="M86">
-        <v>0.17800000309944153</v>
-      </c>
-      <c r="N86">
-        <v>0.17870000004768372</v>
-      </c>
-      <c r="O86">
-        <v>0.18029999732971191</v>
-      </c>
-      <c r="P86">
-        <v>0.18189999461174011</v>
-      </c>
-      <c r="Q86">
-        <v>0.18310000002384186</v>
-      </c>
-      <c r="R86">
-        <v>0.1851000040769577</v>
-      </c>
-      <c r="S86">
-        <v>0.18819999694824219</v>
-      </c>
-      <c r="T86">
-        <v>0.19089999794960022</v>
-      </c>
-      <c r="U86">
-        <v>0.19460000097751617</v>
-      </c>
-      <c r="V86">
-        <v>0.19820000231266022</v>
-      </c>
-      <c r="W86">
-        <v>0.20250000059604645</v>
-      </c>
-      <c r="X86">
-        <v>0.20739999413490295</v>
-      </c>
-      <c r="Y86">
-        <v>0.21189999580383301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="5" t="s">
         <v>90</v>
       </c>
@@ -5794,50 +3687,8 @@
       <c r="K87">
         <v>0.1664000004529953</v>
       </c>
-      <c r="L87">
-        <v>0.16629999876022339</v>
-      </c>
-      <c r="M87">
-        <v>0.16619999706745148</v>
-      </c>
-      <c r="N87">
-        <v>0.16580000519752502</v>
-      </c>
-      <c r="O87">
-        <v>0.16550000011920929</v>
-      </c>
-      <c r="P87">
-        <v>0.16580000519752502</v>
-      </c>
-      <c r="Q87">
-        <v>0.16599999368190765</v>
-      </c>
-      <c r="R87">
-        <v>0.16590000689029694</v>
-      </c>
-      <c r="S87">
-        <v>0.16629999876022339</v>
-      </c>
-      <c r="T87">
-        <v>0.16629999876022339</v>
-      </c>
-      <c r="U87">
-        <v>0.16650000214576721</v>
-      </c>
-      <c r="V87">
-        <v>0.16650000214576721</v>
-      </c>
-      <c r="W87">
-        <v>0.16699999570846558</v>
-      </c>
-      <c r="X87">
-        <v>0.16750000417232513</v>
-      </c>
-      <c r="Y87">
-        <v>0.16789999604225159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="5" t="s">
         <v>91</v>
       </c>
@@ -5871,50 +3722,8 @@
       <c r="K88">
         <v>0.43599998950958252</v>
       </c>
-      <c r="L88">
-        <v>0.47150000929832458</v>
-      </c>
-      <c r="M88">
-        <v>0.51590001583099365</v>
-      </c>
-      <c r="N88">
-        <v>0.56300002336502075</v>
-      </c>
-      <c r="O88">
-        <v>0.58359998464584351</v>
-      </c>
-      <c r="P88">
-        <v>0.58840000629425049</v>
-      </c>
-      <c r="Q88">
-        <v>0.59289997816085815</v>
-      </c>
-      <c r="R88">
-        <v>0.59500002861022949</v>
-      </c>
-      <c r="S88">
-        <v>0.59689998626708984</v>
-      </c>
-      <c r="T88">
-        <v>0.59810000658035278</v>
-      </c>
-      <c r="U88">
-        <v>0.59930002689361572</v>
-      </c>
-      <c r="V88">
-        <v>0.59930002689361572</v>
-      </c>
-      <c r="W88">
-        <v>0.60149997472763062</v>
-      </c>
-      <c r="X88">
-        <v>0.60500001907348633</v>
-      </c>
-      <c r="Y88">
-        <v>0.60820001363754272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="5" t="s">
         <v>92</v>
       </c>
@@ -5948,50 +3757,8 @@
       <c r="K89">
         <v>0.41530001163482666</v>
       </c>
-      <c r="L89">
-        <v>0.42910000681877136</v>
-      </c>
-      <c r="M89">
-        <v>0.4390999972820282</v>
-      </c>
-      <c r="N89">
-        <v>0.4390999972820282</v>
-      </c>
-      <c r="O89">
-        <v>0.44650000333786011</v>
-      </c>
-      <c r="P89">
-        <v>0.45440000295639038</v>
-      </c>
-      <c r="Q89">
-        <v>0.46039998531341553</v>
-      </c>
-      <c r="R89">
-        <v>0.46689999103546143</v>
-      </c>
-      <c r="S89">
-        <v>0.47310000658035278</v>
-      </c>
-      <c r="T89">
-        <v>0.48069998621940613</v>
-      </c>
-      <c r="U89">
-        <v>0.4862000048160553</v>
-      </c>
-      <c r="V89">
-        <v>0.49090000987052917</v>
-      </c>
-      <c r="W89">
-        <v>0.49660000205039978</v>
-      </c>
-      <c r="X89">
-        <v>0.50110000371932983</v>
-      </c>
-      <c r="Y89">
-        <v>0.50620001554489136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="5" t="s">
         <v>93</v>
       </c>
@@ -6025,50 +3792,8 @@
       <c r="K90">
         <v>0.44539999961853027</v>
       </c>
-      <c r="L90">
-        <v>0.4830000102519989</v>
-      </c>
-      <c r="M90">
-        <v>0.52939999103546143</v>
-      </c>
-      <c r="N90">
-        <v>0.58639997243881226</v>
-      </c>
-      <c r="O90">
-        <v>0.6403999924659729</v>
-      </c>
-      <c r="P90">
-        <v>0.69249999523162842</v>
-      </c>
-      <c r="Q90">
-        <v>0.70509999990463257</v>
-      </c>
-      <c r="R90">
-        <v>0.7070000171661377</v>
-      </c>
-      <c r="S90">
-        <v>0.70810002088546753</v>
-      </c>
-      <c r="T90">
-        <v>0.70829999446868896</v>
-      </c>
-      <c r="U90">
-        <v>0.70859998464584351</v>
-      </c>
-      <c r="V90">
-        <v>0.70819997787475586</v>
-      </c>
-      <c r="W90">
-        <v>0.70800000429153442</v>
-      </c>
-      <c r="X90">
-        <v>0.70929998159408569</v>
-      </c>
-      <c r="Y90">
-        <v>0.71060001850128174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="5" t="s">
         <v>94</v>
       </c>
@@ -6102,50 +3827,8 @@
       <c r="K91">
         <v>0.40569999814033508</v>
       </c>
-      <c r="L91">
-        <v>0.41380000114440918</v>
-      </c>
-      <c r="M91">
-        <v>0.43000000715255737</v>
-      </c>
-      <c r="N91">
-        <v>0.44010001420974731</v>
-      </c>
-      <c r="O91">
-        <v>0.44580000638961792</v>
-      </c>
-      <c r="P91">
-        <v>0.45440000295639038</v>
-      </c>
-      <c r="Q91">
-        <v>0.46059998869895935</v>
-      </c>
-      <c r="R91">
-        <v>0.46729999780654907</v>
-      </c>
-      <c r="S91">
-        <v>0.47339999675750732</v>
-      </c>
-      <c r="T91">
-        <v>0.48109999299049377</v>
-      </c>
-      <c r="U91">
-        <v>0.48660001158714294</v>
-      </c>
-      <c r="V91">
-        <v>0.49369999766349792</v>
-      </c>
-      <c r="W91">
-        <v>0.49979999661445618</v>
-      </c>
-      <c r="X91">
-        <v>0.50489997863769531</v>
-      </c>
-      <c r="Y91">
-        <v>0.51150000095367432</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="5" t="s">
         <v>95</v>
       </c>
@@ -6179,50 +3862,8 @@
       <c r="K92">
         <v>0.44319999217987061</v>
       </c>
-      <c r="L92">
-        <v>0.48320001363754272</v>
-      </c>
-      <c r="M92">
-        <v>0.53179997205734253</v>
-      </c>
-      <c r="N92">
-        <v>0.59049999713897705</v>
-      </c>
-      <c r="O92">
-        <v>0.64300000667572021</v>
-      </c>
-      <c r="P92">
-        <v>0.68709999322891235</v>
-      </c>
-      <c r="Q92">
-        <v>0.73119997978210449</v>
-      </c>
-      <c r="R92">
-        <v>0.77410000562667847</v>
-      </c>
-      <c r="S92">
-        <v>0.79589998722076416</v>
-      </c>
-      <c r="T92">
-        <v>0.8245999813079834</v>
-      </c>
-      <c r="U92">
-        <v>0.85110002756118774</v>
-      </c>
-      <c r="V92">
-        <v>0.86549997329711914</v>
-      </c>
-      <c r="W92">
-        <v>0.883899986743927</v>
-      </c>
-      <c r="X92">
-        <v>0.88550001382827759</v>
-      </c>
-      <c r="Y92">
-        <v>0.88840001821517944</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="5" t="s">
         <v>96</v>
       </c>
@@ -6256,50 +3897,8 @@
       <c r="K93">
         <v>0.38690000772476196</v>
       </c>
-      <c r="L93">
-        <v>0.39739999175071716</v>
-      </c>
-      <c r="M93">
-        <v>0.4018000066280365</v>
-      </c>
-      <c r="N93">
-        <v>0.41280001401901245</v>
-      </c>
-      <c r="O93">
-        <v>0.42680001258850098</v>
-      </c>
-      <c r="P93">
-        <v>0.4392000138759613</v>
-      </c>
-      <c r="Q93">
-        <v>0.44760000705718994</v>
-      </c>
-      <c r="R93">
-        <v>0.45559999346733093</v>
-      </c>
-      <c r="S93">
-        <v>0.46250000596046448</v>
-      </c>
-      <c r="T93">
-        <v>0.46950000524520874</v>
-      </c>
-      <c r="U93">
-        <v>0.47589999437332153</v>
-      </c>
-      <c r="V93">
-        <v>0.48269999027252197</v>
-      </c>
-      <c r="W93">
-        <v>0.48939999938011169</v>
-      </c>
-      <c r="X93">
-        <v>0.49450001120567322</v>
-      </c>
-      <c r="Y93">
-        <v>0.50110000371932983</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="5" t="s">
         <v>97</v>
       </c>
@@ -6333,50 +3932,8 @@
       <c r="K94">
         <v>0.43900001049041748</v>
       </c>
-      <c r="L94">
-        <v>0.47990000247955322</v>
-      </c>
-      <c r="M94">
-        <v>0.53030002117156982</v>
-      </c>
-      <c r="N94">
-        <v>0.58740001916885376</v>
-      </c>
-      <c r="O94">
-        <v>0.64060002565383911</v>
-      </c>
-      <c r="P94">
-        <v>0.6843000054359436</v>
-      </c>
-      <c r="Q94">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="R94">
-        <v>0.76599997282028198</v>
-      </c>
-      <c r="S94">
-        <v>0.7929999828338623</v>
-      </c>
-      <c r="T94">
-        <v>0.8223000168800354</v>
-      </c>
-      <c r="U94">
-        <v>0.84850001335144043</v>
-      </c>
-      <c r="V94">
-        <v>0.86239999532699585</v>
-      </c>
-      <c r="W94">
-        <v>0.87730002403259277</v>
-      </c>
-      <c r="X94">
-        <v>0.88020002841949463</v>
-      </c>
-      <c r="Y94">
-        <v>0.88279998302459717</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="5" t="s">
         <v>98</v>
       </c>
@@ -6410,50 +3967,8 @@
       <c r="K95">
         <v>0.37430000305175781</v>
       </c>
-      <c r="L95">
-        <v>0.39259999990463257</v>
-      </c>
-      <c r="M95">
-        <v>0.39779999852180481</v>
-      </c>
-      <c r="N95">
-        <v>0.40580001473426819</v>
-      </c>
-      <c r="O95">
-        <v>0.41600000858306885</v>
-      </c>
-      <c r="P95">
-        <v>0.42809998989105225</v>
-      </c>
-      <c r="Q95">
-        <v>0.4390999972820282</v>
-      </c>
-      <c r="R95">
-        <v>0.44800001382827759</v>
-      </c>
-      <c r="S95">
-        <v>0.45399999618530273</v>
-      </c>
-      <c r="T95">
-        <v>0.460999995470047</v>
-      </c>
-      <c r="U95">
-        <v>0.46619999408721924</v>
-      </c>
-      <c r="V95">
-        <v>0.47310000658035278</v>
-      </c>
-      <c r="W95">
-        <v>0.4796999990940094</v>
-      </c>
-      <c r="X95">
-        <v>0.48410001397132874</v>
-      </c>
-      <c r="Y95">
-        <v>0.49050000309944153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="5" t="s">
         <v>99</v>
       </c>
@@ -6487,50 +4002,8 @@
       <c r="K96">
         <v>0.42800000309944153</v>
       </c>
-      <c r="L96">
-        <v>0.46799999475479126</v>
-      </c>
-      <c r="M96">
-        <v>0.51759999990463257</v>
-      </c>
-      <c r="N96">
-        <v>0.57690000534057617</v>
-      </c>
-      <c r="O96">
-        <v>0.63419997692108154</v>
-      </c>
-      <c r="P96">
-        <v>0.67390000820159912</v>
-      </c>
-      <c r="Q96">
-        <v>0.71850001811981201</v>
-      </c>
-      <c r="R96">
-        <v>0.75709998607635498</v>
-      </c>
-      <c r="S96">
-        <v>0.78899997472763062</v>
-      </c>
-      <c r="T96">
-        <v>0.82039999961853027</v>
-      </c>
-      <c r="U96">
-        <v>0.84670001268386841</v>
-      </c>
-      <c r="V96">
-        <v>0.8586999773979187</v>
-      </c>
-      <c r="W96">
-        <v>0.86769998073577881</v>
-      </c>
-      <c r="X96">
-        <v>0.86890000104904175</v>
-      </c>
-      <c r="Y96">
-        <v>0.87250000238418579</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="5" t="s">
         <v>100</v>
       </c>
@@ -6564,50 +4037,8 @@
       <c r="K97">
         <v>0.37680000066757202</v>
       </c>
-      <c r="L97">
-        <v>0.39779999852180481</v>
-      </c>
-      <c r="M97">
-        <v>0.40029999613761902</v>
-      </c>
-      <c r="N97">
-        <v>0.40939998626708984</v>
-      </c>
-      <c r="O97">
-        <v>0.41980001330375671</v>
-      </c>
-      <c r="P97">
-        <v>0.43119999766349792</v>
-      </c>
-      <c r="Q97">
-        <v>0.44209998846054077</v>
-      </c>
-      <c r="R97">
-        <v>0.45280000567436218</v>
-      </c>
-      <c r="S97">
-        <v>0.45960000157356262</v>
-      </c>
-      <c r="T97">
-        <v>0.46630001068115234</v>
-      </c>
-      <c r="U97">
-        <v>0.47189998626708984</v>
-      </c>
-      <c r="V97">
-        <v>0.47900000214576721</v>
-      </c>
-      <c r="W97">
-        <v>0.48600000143051147</v>
-      </c>
-      <c r="X97">
-        <v>0.49029999971389771</v>
-      </c>
-      <c r="Y97">
-        <v>0.49689999222755432</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="5" t="s">
         <v>101</v>
       </c>
@@ -6641,50 +4072,8 @@
       <c r="K98">
         <v>0.42980000376701355</v>
       </c>
-      <c r="L98">
-        <v>0.4643000066280365</v>
-      </c>
-      <c r="M98">
-        <v>0.51109999418258667</v>
-      </c>
-      <c r="N98">
-        <v>0.56770002841949463</v>
-      </c>
-      <c r="O98">
-        <v>0.62540000677108765</v>
-      </c>
-      <c r="P98">
-        <v>0.67070001363754272</v>
-      </c>
-      <c r="Q98">
-        <v>0.71039998531341553</v>
-      </c>
-      <c r="R98">
-        <v>0.75080001354217529</v>
-      </c>
-      <c r="S98">
-        <v>0.78130000829696655</v>
-      </c>
-      <c r="T98">
-        <v>0.81379997730255127</v>
-      </c>
-      <c r="U98">
-        <v>0.84200000762939453</v>
-      </c>
-      <c r="V98">
-        <v>0.86070001125335693</v>
-      </c>
-      <c r="W98">
-        <v>0.8684999942779541</v>
-      </c>
-      <c r="X98">
-        <v>0.87139999866485596</v>
-      </c>
-      <c r="Y98">
-        <v>0.87510001659393311</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="5" t="s">
         <v>102</v>
       </c>
@@ -6718,50 +4107,8 @@
       <c r="K99">
         <v>0.3628000020980835</v>
       </c>
-      <c r="L99">
-        <v>0.38519999384880066</v>
-      </c>
-      <c r="M99">
-        <v>0.38940000534057617</v>
-      </c>
-      <c r="N99">
-        <v>0.39660000801086426</v>
-      </c>
-      <c r="O99">
-        <v>0.40569999814033508</v>
-      </c>
-      <c r="P99">
-        <v>0.41809999942779541</v>
-      </c>
-      <c r="Q99">
-        <v>0.42890000343322754</v>
-      </c>
-      <c r="R99">
-        <v>0.43900001049041748</v>
-      </c>
-      <c r="S99">
-        <v>0.44530001282691956</v>
-      </c>
-      <c r="T99">
-        <v>0.4512999951839447</v>
-      </c>
-      <c r="U99">
-        <v>0.45730000734329224</v>
-      </c>
-      <c r="V99">
-        <v>0.46410000324249268</v>
-      </c>
-      <c r="W99">
-        <v>0.4708000123500824</v>
-      </c>
-      <c r="X99">
-        <v>0.47600001096725464</v>
-      </c>
-      <c r="Y99">
-        <v>0.4814000129699707</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="5" t="s">
         <v>103</v>
       </c>
@@ -6795,50 +4142,8 @@
       <c r="K100">
         <v>0.45190000534057617</v>
       </c>
-      <c r="L100">
-        <v>0.48949998617172241</v>
-      </c>
-      <c r="M100">
-        <v>0.52910000085830688</v>
-      </c>
-      <c r="N100">
-        <v>0.58259999752044678</v>
-      </c>
-      <c r="O100">
-        <v>0.60189998149871826</v>
-      </c>
-      <c r="P100">
-        <v>0.60600000619888306</v>
-      </c>
-      <c r="Q100">
-        <v>0.61089998483657837</v>
-      </c>
-      <c r="R100">
-        <v>0.61119997501373291</v>
-      </c>
-      <c r="S100">
-        <v>0.61250001192092896</v>
-      </c>
-      <c r="T100">
-        <v>0.61390000581741333</v>
-      </c>
-      <c r="U100">
-        <v>0.61460000276565552</v>
-      </c>
-      <c r="V100">
-        <v>0.61460000276565552</v>
-      </c>
-      <c r="W100">
-        <v>0.61460000276565552</v>
-      </c>
-      <c r="X100">
-        <v>0.61729997396469116</v>
-      </c>
-      <c r="Y100">
-        <v>0.62099999189376831</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="5" t="s">
         <v>104</v>
       </c>
@@ -6872,50 +4177,8 @@
       <c r="K101">
         <v>0.43849998712539673</v>
       </c>
-      <c r="L101">
-        <v>0.48240000009536743</v>
-      </c>
-      <c r="M101">
-        <v>0.51999998092651367</v>
-      </c>
-      <c r="N101">
-        <v>0.55800002813339233</v>
-      </c>
-      <c r="O101">
-        <v>0.58230000734329224</v>
-      </c>
-      <c r="P101">
-        <v>0.61470001935958862</v>
-      </c>
-      <c r="Q101">
-        <v>0.63770002126693726</v>
-      </c>
-      <c r="R101">
-        <v>0.65719997882843018</v>
-      </c>
-      <c r="S101">
-        <v>0.71560001373291016</v>
-      </c>
-      <c r="T101">
-        <v>0.73229998350143433</v>
-      </c>
-      <c r="U101">
-        <v>0.73909997940063477</v>
-      </c>
-      <c r="V101">
-        <v>0.74739998579025269</v>
-      </c>
-      <c r="W101">
-        <v>0.76139998435974121</v>
-      </c>
-      <c r="X101">
-        <v>0.77829998731613159</v>
-      </c>
-      <c r="Y101">
-        <v>0.79439997673034668</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="5" t="s">
         <v>105</v>
       </c>
@@ -6949,50 +4212,8 @@
       <c r="K102">
         <v>0.46560001373291016</v>
       </c>
-      <c r="L102">
-        <v>0.50139999389648438</v>
-      </c>
-      <c r="M102">
-        <v>0.5404999852180481</v>
-      </c>
-      <c r="N102">
-        <v>0.59680002927780151</v>
-      </c>
-      <c r="O102">
-        <v>0.65039998292922974</v>
-      </c>
-      <c r="P102">
-        <v>0.70759999752044678</v>
-      </c>
-      <c r="Q102">
-        <v>0.71939998865127563</v>
-      </c>
-      <c r="R102">
-        <v>0.72189998626708984</v>
-      </c>
-      <c r="S102">
-        <v>0.72079998254776001</v>
-      </c>
-      <c r="T102">
-        <v>0.72039997577667236</v>
-      </c>
-      <c r="U102">
-        <v>0.72079998254776001</v>
-      </c>
-      <c r="V102">
-        <v>0.72140002250671387</v>
-      </c>
-      <c r="W102">
-        <v>0.72259998321533203</v>
-      </c>
-      <c r="X102">
-        <v>0.72299998998641968</v>
-      </c>
-      <c r="Y102">
-        <v>0.72299998998641968</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="5" t="s">
         <v>106</v>
       </c>
@@ -7026,50 +4247,8 @@
       <c r="K103">
         <v>0.41019999980926514</v>
       </c>
-      <c r="L103">
-        <v>0.42390000820159912</v>
-      </c>
-      <c r="M103">
-        <v>0.43340000510215759</v>
-      </c>
-      <c r="N103">
-        <v>0.44499999284744263</v>
-      </c>
-      <c r="O103">
-        <v>0.45190000534057617</v>
-      </c>
-      <c r="P103">
-        <v>0.46050000190734863</v>
-      </c>
-      <c r="Q103">
-        <v>0.46790000796318054</v>
-      </c>
-      <c r="R103">
-        <v>0.47560000419616699</v>
-      </c>
-      <c r="S103">
-        <v>0.4812999963760376</v>
-      </c>
-      <c r="T103">
-        <v>0.48870000243186951</v>
-      </c>
-      <c r="U103">
-        <v>0.49320000410079956</v>
-      </c>
-      <c r="V103">
-        <v>0.50040000677108765</v>
-      </c>
-      <c r="W103">
-        <v>0.506600022315979</v>
-      </c>
-      <c r="X103">
-        <v>0.51160001754760742</v>
-      </c>
-      <c r="Y103">
-        <v>0.51700001955032349</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="5" t="s">
         <v>107</v>
       </c>
@@ -7103,50 +4282,8 @@
       <c r="K104">
         <v>0.43149998784065247</v>
       </c>
-      <c r="L104">
-        <v>0.46919998526573181</v>
-      </c>
-      <c r="M104">
-        <v>0.5185999870300293</v>
-      </c>
-      <c r="N104">
-        <v>0.57630002498626709</v>
-      </c>
-      <c r="O104">
-        <v>0.62989997863769531</v>
-      </c>
-      <c r="P104">
-        <v>0.67299997806549072</v>
-      </c>
-      <c r="Q104">
-        <v>0.7182999849319458</v>
-      </c>
-      <c r="R104">
-        <v>0.76279997825622559</v>
-      </c>
-      <c r="S104">
-        <v>0.78320002555847168</v>
-      </c>
-      <c r="T104">
-        <v>0.81050002574920654</v>
-      </c>
-      <c r="U104">
-        <v>0.83630001544952393</v>
-      </c>
-      <c r="V104">
-        <v>0.85500001907348633</v>
-      </c>
-      <c r="W104">
-        <v>0.87199997901916504</v>
-      </c>
-      <c r="X104">
-        <v>0.87379997968673706</v>
-      </c>
-      <c r="Y104">
-        <v>0.87440001964569092</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="5" t="s">
         <v>108</v>
       </c>
@@ -7180,50 +4317,8 @@
       <c r="K105">
         <v>0.42699998617172241</v>
       </c>
-      <c r="L105">
-        <v>0.47029998898506165</v>
-      </c>
-      <c r="M105">
-        <v>0.51499998569488525</v>
-      </c>
-      <c r="N105">
-        <v>0.55070000886917114</v>
-      </c>
-      <c r="O105">
-        <v>0.58749997615814209</v>
-      </c>
-      <c r="P105">
-        <v>0.62510001659393311</v>
-      </c>
-      <c r="Q105">
-        <v>0.65770000219345093</v>
-      </c>
-      <c r="R105">
-        <v>0.68760001659393311</v>
-      </c>
-      <c r="S105">
-        <v>0.71799999475479126</v>
-      </c>
-      <c r="T105">
-        <v>0.74400001764297485</v>
-      </c>
-      <c r="U105">
-        <v>0.7687000036239624</v>
-      </c>
-      <c r="V105">
-        <v>0.81610000133514404</v>
-      </c>
-      <c r="W105">
-        <v>0.82940000295639038</v>
-      </c>
-      <c r="X105">
-        <v>0.84530001878738403</v>
-      </c>
-      <c r="Y105">
-        <v>0.86769998073577881</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="5" t="s">
         <v>109</v>
       </c>
@@ -7257,50 +4352,8 @@
       <c r="K106">
         <v>0.43880000710487366</v>
       </c>
-      <c r="L106">
-        <v>0.47940000891685486</v>
-      </c>
-      <c r="M106">
-        <v>0.53119999170303345</v>
-      </c>
-      <c r="N106">
-        <v>0.58660000562667847</v>
-      </c>
-      <c r="O106">
-        <v>0.64139997959136963</v>
-      </c>
-      <c r="P106">
-        <v>0.68459999561309814</v>
-      </c>
-      <c r="Q106">
-        <v>0.72909998893737793</v>
-      </c>
-      <c r="R106">
-        <v>0.7687000036239624</v>
-      </c>
-      <c r="S106">
-        <v>0.79500001668930054</v>
-      </c>
-      <c r="T106">
-        <v>0.82520002126693726</v>
-      </c>
-      <c r="U106">
-        <v>0.85229998826980591</v>
-      </c>
-      <c r="V106">
-        <v>0.86729997396469116</v>
-      </c>
-      <c r="W106">
-        <v>0.87929999828338623</v>
-      </c>
-      <c r="X106">
-        <v>0.88020002841949463</v>
-      </c>
-      <c r="Y106">
-        <v>0.88279998302459717</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="5" t="s">
         <v>110</v>
       </c>
@@ -7334,50 +4387,8 @@
       <c r="K107">
         <v>0.37940001487731934</v>
       </c>
-      <c r="L107">
-        <v>0.39789998531341553</v>
-      </c>
-      <c r="M107">
-        <v>0.4018000066280365</v>
-      </c>
-      <c r="N107">
-        <v>0.40880000591278076</v>
-      </c>
-      <c r="O107">
-        <v>0.42100000381469727</v>
-      </c>
-      <c r="P107">
-        <v>0.43270000815391541</v>
-      </c>
-      <c r="Q107">
-        <v>0.44339999556541443</v>
-      </c>
-      <c r="R107">
-        <v>0.45239999890327454</v>
-      </c>
-      <c r="S107">
-        <v>0.45870000123977661</v>
-      </c>
-      <c r="T107">
-        <v>0.46599999070167542</v>
-      </c>
-      <c r="U107">
-        <v>0.47130000591278076</v>
-      </c>
-      <c r="V107">
-        <v>0.47819998860359192</v>
-      </c>
-      <c r="W107">
-        <v>0.48350000381469727</v>
-      </c>
-      <c r="X107">
-        <v>0.48820000886917114</v>
-      </c>
-      <c r="Y107">
-        <v>0.49520000815391541</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="5" t="s">
         <v>111</v>
       </c>
@@ -7411,50 +4422,8 @@
       <c r="K108">
         <v>0.43059998750686646</v>
       </c>
-      <c r="L108">
-        <v>0.46979999542236328</v>
-      </c>
-      <c r="M108">
-        <v>0.51940000057220459</v>
-      </c>
-      <c r="N108">
-        <v>0.57529997825622559</v>
-      </c>
-      <c r="O108">
-        <v>0.63539999723434448</v>
-      </c>
-      <c r="P108">
-        <v>0.67409998178482056</v>
-      </c>
-      <c r="Q108">
-        <v>0.71789997816085815</v>
-      </c>
-      <c r="R108">
-        <v>0.75770002603530884</v>
-      </c>
-      <c r="S108">
-        <v>0.78710001707077026</v>
-      </c>
-      <c r="T108">
-        <v>0.81800001859664917</v>
-      </c>
-      <c r="U108">
-        <v>0.84450000524520874</v>
-      </c>
-      <c r="V108">
-        <v>0.85839998722076416</v>
-      </c>
-      <c r="W108">
-        <v>0.8694000244140625</v>
-      </c>
-      <c r="X108">
-        <v>0.87230002880096436</v>
-      </c>
-      <c r="Y108">
-        <v>0.87730002403259277</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="5" t="s">
         <v>112</v>
       </c>
@@ -7488,50 +4457,8 @@
       <c r="K109">
         <v>0.37520000338554382</v>
       </c>
-      <c r="L109">
-        <v>0.39800000190734863</v>
-      </c>
-      <c r="M109">
-        <v>0.40139999985694885</v>
-      </c>
-      <c r="N109">
-        <v>0.40860000252723694</v>
-      </c>
-      <c r="O109">
-        <v>0.42030000686645508</v>
-      </c>
-      <c r="P109">
-        <v>0.43189999461174011</v>
-      </c>
-      <c r="Q109">
-        <v>0.44200000166893005</v>
-      </c>
-      <c r="R109">
-        <v>0.45159998536109924</v>
-      </c>
-      <c r="S109">
-        <v>0.45759999752044678</v>
-      </c>
-      <c r="T109">
-        <v>0.46540001034736633</v>
-      </c>
-      <c r="U109">
-        <v>0.47060000896453857</v>
-      </c>
-      <c r="V109">
-        <v>0.47760000824928284</v>
-      </c>
-      <c r="W109">
-        <v>0.48359999060630798</v>
-      </c>
-      <c r="X109">
-        <v>0.48829999566078186</v>
-      </c>
-      <c r="Y109">
-        <v>0.49570000171661377</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="5" t="s">
         <v>113</v>
       </c>
@@ -7565,50 +4492,8 @@
       <c r="K110">
         <v>0.42779999971389771</v>
       </c>
-      <c r="L110">
-        <v>0.46329998970031738</v>
-      </c>
-      <c r="M110">
-        <v>0.50870001316070557</v>
-      </c>
-      <c r="N110">
-        <v>0.5648999810218811</v>
-      </c>
-      <c r="O110">
-        <v>0.62309998273849487</v>
-      </c>
-      <c r="P110">
-        <v>0.66589999198913574</v>
-      </c>
-      <c r="Q110">
-        <v>0.70749998092651367</v>
-      </c>
-      <c r="R110">
-        <v>0.74959999322891235</v>
-      </c>
-      <c r="S110">
-        <v>0.77910000085830688</v>
-      </c>
-      <c r="T110">
-        <v>0.81269997358322144</v>
-      </c>
-      <c r="U110">
-        <v>0.83850002288818359</v>
-      </c>
-      <c r="V110">
-        <v>0.85650002956390381</v>
-      </c>
-      <c r="W110">
-        <v>0.86210000514984131</v>
-      </c>
-      <c r="X110">
-        <v>0.86549997329711914</v>
-      </c>
-      <c r="Y110">
-        <v>0.87120002508163452</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="5" t="s">
         <v>114</v>
       </c>
@@ -7642,50 +4527,8 @@
       <c r="K111">
         <v>0.3718000054359436</v>
       </c>
-      <c r="L111">
-        <v>0.39440000057220459</v>
-      </c>
-      <c r="M111">
-        <v>0.39899998903274536</v>
-      </c>
-      <c r="N111">
-        <v>0.40659999847412109</v>
-      </c>
-      <c r="O111">
-        <v>0.41740000247955322</v>
-      </c>
-      <c r="P111">
-        <v>0.42820000648498535</v>
-      </c>
-      <c r="Q111">
-        <v>0.43970000743865967</v>
-      </c>
-      <c r="R111">
-        <v>0.44949999451637268</v>
-      </c>
-      <c r="S111">
-        <v>0.4560999870300293</v>
-      </c>
-      <c r="T111">
-        <v>0.46369999647140503</v>
-      </c>
-      <c r="U111">
-        <v>0.46930000185966492</v>
-      </c>
-      <c r="V111">
-        <v>0.47600001096725464</v>
-      </c>
-      <c r="W111">
-        <v>0.48219999670982361</v>
-      </c>
-      <c r="X111">
-        <v>0.48730000853538513</v>
-      </c>
-      <c r="Y111">
-        <v>0.49369999766349792</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="5" t="s">
         <v>115</v>
       </c>
@@ -7719,50 +4562,8 @@
       <c r="K112">
         <v>0.46840000152587891</v>
       </c>
-      <c r="L112">
-        <v>0.49450001120567322</v>
-      </c>
-      <c r="M112">
-        <v>0.51609998941421509</v>
-      </c>
-      <c r="N112">
-        <v>0.53799998760223389</v>
-      </c>
-      <c r="O112">
-        <v>0.54780000448226929</v>
-      </c>
-      <c r="P112">
-        <v>0.55610001087188721</v>
-      </c>
-      <c r="Q112">
-        <v>0.56349998712539673</v>
-      </c>
-      <c r="R112">
-        <v>0.56419998407363892</v>
-      </c>
-      <c r="S112">
-        <v>0.56209999322891235</v>
-      </c>
-      <c r="T112">
-        <v>0.56470000743865967</v>
-      </c>
-      <c r="U112">
-        <v>0.56830000877380371</v>
-      </c>
-      <c r="V112">
-        <v>0.57539999485015869</v>
-      </c>
-      <c r="W112">
-        <v>0.56999999284744263</v>
-      </c>
-      <c r="X112">
-        <v>0.57709997892379761</v>
-      </c>
-      <c r="Y112">
-        <v>0.58190000057220459</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="5" t="s">
         <v>116</v>
       </c>
@@ -7796,50 +4597,8 @@
       <c r="K113">
         <v>0.48649999499320984</v>
       </c>
-      <c r="L113">
-        <v>0.5120999813079834</v>
-      </c>
-      <c r="M113">
-        <v>0.53250002861022949</v>
-      </c>
-      <c r="N113">
-        <v>0.54879999160766602</v>
-      </c>
-      <c r="O113">
-        <v>0.55909997224807739</v>
-      </c>
-      <c r="P113">
-        <v>0.56519997119903564</v>
-      </c>
-      <c r="Q113">
-        <v>0.5680999755859375</v>
-      </c>
-      <c r="R113">
-        <v>0.57480001449584961</v>
-      </c>
-      <c r="S113">
-        <v>0.57099997997283936</v>
-      </c>
-      <c r="T113">
-        <v>0.57179999351501465</v>
-      </c>
-      <c r="U113">
-        <v>0.57829999923706055</v>
-      </c>
-      <c r="V113">
-        <v>0.58069998025894165</v>
-      </c>
-      <c r="W113">
-        <v>0.58099997043609619</v>
-      </c>
-      <c r="X113">
-        <v>0.58539998531341553</v>
-      </c>
-      <c r="Y113">
-        <v>0.58859997987747192</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="5" t="s">
         <v>117</v>
       </c>
@@ -7873,50 +4632,8 @@
       <c r="K114">
         <v>0.48210000991821289</v>
       </c>
-      <c r="L114">
-        <v>0.50789999961853027</v>
-      </c>
-      <c r="M114">
-        <v>0.52979999780654907</v>
-      </c>
-      <c r="N114">
-        <v>0.55019998550415039</v>
-      </c>
-      <c r="O114">
-        <v>0.56150001287460327</v>
-      </c>
-      <c r="P114">
-        <v>0.56950002908706665</v>
-      </c>
-      <c r="Q114">
-        <v>0.57020002603530884</v>
-      </c>
-      <c r="R114">
-        <v>0.57260000705718994</v>
-      </c>
-      <c r="S114">
-        <v>0.57450002431869507</v>
-      </c>
-      <c r="T114">
-        <v>0.5746999979019165</v>
-      </c>
-      <c r="U114">
-        <v>0.57810002565383911</v>
-      </c>
-      <c r="V114">
-        <v>0.58060002326965332</v>
-      </c>
-      <c r="W114">
-        <v>0.58550000190734863</v>
-      </c>
-      <c r="X114">
-        <v>0.58480000495910645</v>
-      </c>
-      <c r="Y114">
-        <v>0.59249997138977051</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="5" t="s">
         <v>118</v>
       </c>
@@ -7950,50 +4667,8 @@
       <c r="K115">
         <v>0.4927000105381012</v>
       </c>
-      <c r="L115">
-        <v>0.51810002326965332</v>
-      </c>
-      <c r="M115">
-        <v>0.53920000791549683</v>
-      </c>
-      <c r="N115">
-        <v>0.55460000038146973</v>
-      </c>
-      <c r="O115">
-        <v>0.56080001592636108</v>
-      </c>
-      <c r="P115">
-        <v>0.56840002536773682</v>
-      </c>
-      <c r="Q115">
-        <v>0.57289999723434448</v>
-      </c>
-      <c r="R115">
-        <v>0.57529997825622559</v>
-      </c>
-      <c r="S115">
-        <v>0.57190001010894775</v>
-      </c>
-      <c r="T115">
-        <v>0.57279998064041138</v>
-      </c>
-      <c r="U115">
-        <v>0.57760000228881836</v>
-      </c>
-      <c r="V115">
-        <v>0.57870000600814819</v>
-      </c>
-      <c r="W115">
-        <v>0.58359998464584351</v>
-      </c>
-      <c r="X115">
-        <v>0.58700001239776611</v>
-      </c>
-      <c r="Y115">
-        <v>0.58939999341964722</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="5" t="s">
         <v>119</v>
       </c>
@@ -8027,50 +4702,8 @@
       <c r="K116">
         <v>0.47060000896453857</v>
       </c>
-      <c r="L116">
-        <v>0.49619999527931213</v>
-      </c>
-      <c r="M116">
-        <v>0.51749998331069946</v>
-      </c>
-      <c r="N116">
-        <v>0.53799998760223389</v>
-      </c>
-      <c r="O116">
-        <v>0.54549998044967651</v>
-      </c>
-      <c r="P116">
-        <v>0.55180001258850098</v>
-      </c>
-      <c r="Q116">
-        <v>0.55640000104904175</v>
-      </c>
-      <c r="R116">
-        <v>0.55980002880096436</v>
-      </c>
-      <c r="S116">
-        <v>0.56000000238418579</v>
-      </c>
-      <c r="T116">
-        <v>0.56599998474121094</v>
-      </c>
-      <c r="U116">
-        <v>0.56510001420974731</v>
-      </c>
-      <c r="V116">
-        <v>0.56919997930526733</v>
-      </c>
-      <c r="W116">
-        <v>0.56929999589920044</v>
-      </c>
-      <c r="X116">
-        <v>0.56819999217987061</v>
-      </c>
-      <c r="Y116">
-        <v>0.57829999923706055</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="5" t="s">
         <v>120</v>
       </c>
@@ -8104,50 +4737,8 @@
       <c r="K117">
         <v>0.47929999232292175</v>
       </c>
-      <c r="L117">
-        <v>0.50400000810623169</v>
-      </c>
-      <c r="M117">
-        <v>0.52579998970031738</v>
-      </c>
-      <c r="N117">
-        <v>0.54019999504089355</v>
-      </c>
-      <c r="O117">
-        <v>0.54699999094009399</v>
-      </c>
-      <c r="P117">
-        <v>0.55210000276565552</v>
-      </c>
-      <c r="Q117">
-        <v>0.55720001459121704</v>
-      </c>
-      <c r="R117">
-        <v>0.5601000189781189</v>
-      </c>
-      <c r="S117">
-        <v>0.55879998207092285</v>
-      </c>
-      <c r="T117">
-        <v>0.56330001354217529</v>
-      </c>
-      <c r="U117">
-        <v>0.56319999694824219</v>
-      </c>
-      <c r="V117">
-        <v>0.56440001726150513</v>
-      </c>
-      <c r="W117">
-        <v>0.56459999084472656</v>
-      </c>
-      <c r="X117">
-        <v>0.56510001420974731</v>
-      </c>
-      <c r="Y117">
-        <v>0.56940001249313354</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="5" t="s">
         <v>121</v>
       </c>
@@ -8181,50 +4772,8 @@
       <c r="K118">
         <v>0.47839999198913574</v>
       </c>
-      <c r="L118">
-        <v>0.50510001182556152</v>
-      </c>
-      <c r="M118">
-        <v>0.52450001239776611</v>
-      </c>
-      <c r="N118">
-        <v>0.54119998216629028</v>
-      </c>
-      <c r="O118">
-        <v>0.54839998483657837</v>
-      </c>
-      <c r="P118">
-        <v>0.55419999361038208</v>
-      </c>
-      <c r="Q118">
-        <v>0.55720001459121704</v>
-      </c>
-      <c r="R118">
-        <v>0.56169998645782471</v>
-      </c>
-      <c r="S118">
-        <v>0.56029999256134033</v>
-      </c>
-      <c r="T118">
-        <v>0.56290000677108765</v>
-      </c>
-      <c r="U118">
-        <v>0.56419998407363892</v>
-      </c>
-      <c r="V118">
-        <v>0.5656999945640564</v>
-      </c>
-      <c r="W118">
-        <v>0.5658000111579895</v>
-      </c>
-      <c r="X118">
-        <v>0.57099997997283936</v>
-      </c>
-      <c r="Y118">
-        <v>0.57150000333786011</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="5" t="s">
         <v>122</v>
       </c>
@@ -8258,50 +4807,8 @@
       <c r="K119">
         <v>0.48489999771118164</v>
       </c>
-      <c r="L119">
-        <v>0.50959998369216919</v>
-      </c>
-      <c r="M119">
-        <v>0.52990001440048218</v>
-      </c>
-      <c r="N119">
-        <v>0.5437999963760376</v>
-      </c>
-      <c r="O119">
-        <v>0.54979997873306274</v>
-      </c>
-      <c r="P119">
-        <v>0.55510002374649048</v>
-      </c>
-      <c r="Q119">
-        <v>0.55889999866485596</v>
-      </c>
-      <c r="R119">
-        <v>0.56330001354217529</v>
-      </c>
-      <c r="S119">
-        <v>0.56129997968673706</v>
-      </c>
-      <c r="T119">
-        <v>0.56379997730255127</v>
-      </c>
-      <c r="U119">
-        <v>0.56389999389648438</v>
-      </c>
-      <c r="V119">
-        <v>0.56669998168945313</v>
-      </c>
-      <c r="W119">
-        <v>0.56699997186660767</v>
-      </c>
-      <c r="X119">
-        <v>0.57109999656677246</v>
-      </c>
-      <c r="Y119">
-        <v>0.57260000705718994</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="5" t="s">
         <v>123</v>
       </c>
@@ -8335,50 +4842,8 @@
       <c r="K120">
         <v>0.48350000381469727</v>
       </c>
-      <c r="L120">
-        <v>0.51050001382827759</v>
-      </c>
-      <c r="M120">
-        <v>0.53189998865127563</v>
-      </c>
-      <c r="N120">
-        <v>0.55119997262954712</v>
-      </c>
-      <c r="O120">
-        <v>0.55820000171661377</v>
-      </c>
-      <c r="P120">
-        <v>0.56349998712539673</v>
-      </c>
-      <c r="Q120">
-        <v>0.56830000877380371</v>
-      </c>
-      <c r="R120">
-        <v>0.57239997386932373</v>
-      </c>
-      <c r="S120">
-        <v>0.57450002431869507</v>
-      </c>
-      <c r="T120">
-        <v>0.57649999856948853</v>
-      </c>
-      <c r="U120">
-        <v>0.57700002193450928</v>
-      </c>
-      <c r="V120">
-        <v>0.57920002937316895</v>
-      </c>
-      <c r="W120">
-        <v>0.58060002326965332</v>
-      </c>
-      <c r="X120">
-        <v>0.58219999074935913</v>
-      </c>
-      <c r="Y120">
-        <v>0.58490002155303955</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="5" t="s">
         <v>124</v>
       </c>
@@ -8412,50 +4877,8 @@
       <c r="K121">
         <v>0.47870001196861267</v>
       </c>
-      <c r="L121">
-        <v>0.50449997186660767</v>
-      </c>
-      <c r="M121">
-        <v>0.52609997987747192</v>
-      </c>
-      <c r="N121">
-        <v>0.54089999198913574</v>
-      </c>
-      <c r="O121">
-        <v>0.54860001802444458</v>
-      </c>
-      <c r="P121">
-        <v>0.55379998683929443</v>
-      </c>
-      <c r="Q121">
-        <v>0.55760002136230469</v>
-      </c>
-      <c r="R121">
-        <v>0.56220000982284546</v>
-      </c>
-      <c r="S121">
-        <v>0.56099998950958252</v>
-      </c>
-      <c r="T121">
-        <v>0.56470000743865967</v>
-      </c>
-      <c r="U121">
-        <v>0.5658000111579895</v>
-      </c>
-      <c r="V121">
-        <v>0.56720000505447388</v>
-      </c>
-      <c r="W121">
-        <v>0.56859999895095825</v>
-      </c>
-      <c r="X121">
-        <v>0.56989997625350952</v>
-      </c>
-      <c r="Y121">
-        <v>0.57179999351501465</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="5" t="s">
         <v>125</v>
       </c>
@@ -8489,50 +4912,8 @@
       <c r="K122">
         <v>0.47290000319480896</v>
       </c>
-      <c r="L122">
-        <v>0.49990001320838928</v>
-      </c>
-      <c r="M122">
-        <v>0.52160000801086426</v>
-      </c>
-      <c r="N122">
-        <v>0.5404999852180481</v>
-      </c>
-      <c r="O122">
-        <v>0.55019998550415039</v>
-      </c>
-      <c r="P122">
-        <v>0.5559999942779541</v>
-      </c>
-      <c r="Q122">
-        <v>0.56080001592636108</v>
-      </c>
-      <c r="R122">
-        <v>0.56370002031326294</v>
-      </c>
-      <c r="S122">
-        <v>0.56300002336502075</v>
-      </c>
-      <c r="T122">
-        <v>0.56629997491836548</v>
-      </c>
-      <c r="U122">
-        <v>0.56739997863769531</v>
-      </c>
-      <c r="V122">
-        <v>0.57010000944137573</v>
-      </c>
-      <c r="W122">
-        <v>0.57130002975463867</v>
-      </c>
-      <c r="X122">
-        <v>0.57249999046325684</v>
-      </c>
-      <c r="Y122">
-        <v>0.5755000114440918</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="5" t="s">
         <v>126</v>
       </c>
@@ -8566,50 +4947,8 @@
       <c r="K123">
         <v>0.48350000381469727</v>
       </c>
-      <c r="L123">
-        <v>0.50940001010894775</v>
-      </c>
-      <c r="M123">
-        <v>0.53070002794265747</v>
-      </c>
-      <c r="N123">
-        <v>0.54500001668930054</v>
-      </c>
-      <c r="O123">
-        <v>0.55140000581741333</v>
-      </c>
-      <c r="P123">
-        <v>0.55709999799728394</v>
-      </c>
-      <c r="Q123">
-        <v>0.56029999256134033</v>
-      </c>
-      <c r="R123">
-        <v>0.56440001726150513</v>
-      </c>
-      <c r="S123">
-        <v>0.56220000982284546</v>
-      </c>
-      <c r="T123">
-        <v>0.56620001792907715</v>
-      </c>
-      <c r="U123">
-        <v>0.56660002470016479</v>
-      </c>
-      <c r="V123">
-        <v>0.56870001554489136</v>
-      </c>
-      <c r="W123">
-        <v>0.57069998979568481</v>
-      </c>
-      <c r="X123">
-        <v>0.5723000168800354</v>
-      </c>
-      <c r="Y123">
-        <v>0.57309997081756592</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5" t="s">
         <v>127</v>
       </c>
@@ -8643,50 +4982,8 @@
       <c r="K124">
         <v>0.45899999141693115</v>
       </c>
-      <c r="L124">
-        <v>0.47710001468658447</v>
-      </c>
-      <c r="M124">
-        <v>0.49549999833106995</v>
-      </c>
-      <c r="N124">
-        <v>0.51550000905990601</v>
-      </c>
-      <c r="O124">
-        <v>0.52810001373291016</v>
-      </c>
-      <c r="P124">
-        <v>0.54070001840591431</v>
-      </c>
-      <c r="Q124">
-        <v>0.54159998893737793</v>
-      </c>
-      <c r="R124">
-        <v>0.54650002717971802</v>
-      </c>
-      <c r="S124">
-        <v>0.54769998788833618</v>
-      </c>
-      <c r="T124">
-        <v>0.55129998922348022</v>
-      </c>
-      <c r="U124">
-        <v>0.55760002136230469</v>
-      </c>
-      <c r="V124">
-        <v>0.56230002641677856</v>
-      </c>
-      <c r="W124">
-        <v>0.56379997730255127</v>
-      </c>
-      <c r="X124">
-        <v>0.56739997863769531</v>
-      </c>
-      <c r="Y124">
-        <v>0.56679999828338623</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="5" t="s">
         <v>128</v>
       </c>
@@ -8720,50 +5017,8 @@
       <c r="K125">
         <v>0.48510000109672546</v>
       </c>
-      <c r="L125">
-        <v>0.49889999628067017</v>
-      </c>
-      <c r="M125">
-        <v>0.52130001783370972</v>
-      </c>
-      <c r="N125">
-        <v>0.53810000419616699</v>
-      </c>
-      <c r="O125">
-        <v>0.55010002851486206</v>
-      </c>
-      <c r="P125">
-        <v>0.56309998035430908</v>
-      </c>
-      <c r="Q125">
-        <v>0.56540000438690186</v>
-      </c>
-      <c r="R125">
-        <v>0.57090002298355103</v>
-      </c>
-      <c r="S125">
-        <v>0.5723000168800354</v>
-      </c>
-      <c r="T125">
-        <v>0.57529997825622559</v>
-      </c>
-      <c r="U125">
-        <v>0.5778999924659729</v>
-      </c>
-      <c r="V125">
-        <v>0.5843999981880188</v>
-      </c>
-      <c r="W125">
-        <v>0.58789998292922974</v>
-      </c>
-      <c r="X125">
-        <v>0.58859997987747192</v>
-      </c>
-      <c r="Y125">
-        <v>0.58920001983642578</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="5" t="s">
         <v>129</v>
       </c>
@@ -8797,50 +5052,8 @@
       <c r="K126">
         <v>0.4715999960899353</v>
       </c>
-      <c r="L126">
-        <v>0.48800000548362732</v>
-      </c>
-      <c r="M126">
-        <v>0.50739997625350952</v>
-      </c>
-      <c r="N126">
-        <v>0.52609997987747192</v>
-      </c>
-      <c r="O126">
-        <v>0.53780001401901245</v>
-      </c>
-      <c r="P126">
-        <v>0.55140000581741333</v>
-      </c>
-      <c r="Q126">
-        <v>0.5526999831199646</v>
-      </c>
-      <c r="R126">
-        <v>0.55809998512268066</v>
-      </c>
-      <c r="S126">
-        <v>0.56069999933242798</v>
-      </c>
-      <c r="T126">
-        <v>0.56370002031326294</v>
-      </c>
-      <c r="U126">
-        <v>0.56720000505447388</v>
-      </c>
-      <c r="V126">
-        <v>0.57020002603530884</v>
-      </c>
-      <c r="W126">
-        <v>0.57679998874664307</v>
-      </c>
-      <c r="X126">
-        <v>0.57859998941421509</v>
-      </c>
-      <c r="Y126">
-        <v>0.57779997587203979</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="5" t="s">
         <v>130</v>
       </c>
@@ -8874,50 +5087,8 @@
       <c r="K127">
         <v>0.48669999837875366</v>
       </c>
-      <c r="L127">
-        <v>0.50059998035430908</v>
-      </c>
-      <c r="M127">
-        <v>0.52310001850128174</v>
-      </c>
-      <c r="N127">
-        <v>0.53750002384185791</v>
-      </c>
-      <c r="O127">
-        <v>0.54490000009536743</v>
-      </c>
-      <c r="P127">
-        <v>0.5494999885559082</v>
-      </c>
-      <c r="Q127">
-        <v>0.56290000677108765</v>
-      </c>
-      <c r="R127">
-        <v>0.56790000200271606</v>
-      </c>
-      <c r="S127">
-        <v>0.57120001316070557</v>
-      </c>
-      <c r="T127">
-        <v>0.57400000095367432</v>
-      </c>
-      <c r="U127">
-        <v>0.57770001888275146</v>
-      </c>
-      <c r="V127">
-        <v>0.57870000600814819</v>
-      </c>
-      <c r="W127">
-        <v>0.58499997854232788</v>
-      </c>
-      <c r="X127">
-        <v>0.58639997243881226</v>
-      </c>
-      <c r="Y127">
-        <v>0.58410000801086426</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="5" t="s">
         <v>131</v>
       </c>
@@ -8951,50 +5122,8 @@
       <c r="K128">
         <v>0.17100000381469727</v>
       </c>
-      <c r="L128">
-        <v>0.17180000245571136</v>
-      </c>
-      <c r="M128">
-        <v>0.17159999907016754</v>
-      </c>
-      <c r="N128">
-        <v>0.17180000245571136</v>
-      </c>
-      <c r="O128">
-        <v>0.17239999771118164</v>
-      </c>
-      <c r="P128">
-        <v>0.17339999973773956</v>
-      </c>
-      <c r="Q128">
-        <v>0.17409999668598175</v>
-      </c>
-      <c r="R128">
-        <v>0.1745000034570694</v>
-      </c>
-      <c r="S128">
-        <v>0.17499999701976776</v>
-      </c>
-      <c r="T128">
-        <v>0.1761000007390976</v>
-      </c>
-      <c r="U128">
-        <v>0.17640000581741333</v>
-      </c>
-      <c r="V128">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="W128">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="X128">
-        <v>0.17820000648498535</v>
-      </c>
-      <c r="Y128">
-        <v>0.17900000512599945</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="5" t="s">
         <v>132</v>
       </c>
@@ -9028,50 +5157,8 @@
       <c r="K129">
         <v>0.46169999241828918</v>
       </c>
-      <c r="L129">
-        <v>0.47580000758171082</v>
-      </c>
-      <c r="M129">
-        <v>0.50059998035430908</v>
-      </c>
-      <c r="N129">
-        <v>0.51550000905990601</v>
-      </c>
-      <c r="O129">
-        <v>0.52359998226165771</v>
-      </c>
-      <c r="P129">
-        <v>0.52679997682571411</v>
-      </c>
-      <c r="Q129">
-        <v>0.54240000247955322</v>
-      </c>
-      <c r="R129">
-        <v>0.54680001735687256</v>
-      </c>
-      <c r="S129">
-        <v>0.55059999227523804</v>
-      </c>
-      <c r="T129">
-        <v>0.55440002679824829</v>
-      </c>
-      <c r="U129">
-        <v>0.55680000782012939</v>
-      </c>
-      <c r="V129">
-        <v>0.55760002136230469</v>
-      </c>
-      <c r="W129">
-        <v>0.56150001287460327</v>
-      </c>
-      <c r="X129">
-        <v>0.56150001287460327</v>
-      </c>
-      <c r="Y129">
-        <v>0.56110000610351563</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="5" t="s">
         <v>133</v>
       </c>
@@ -9105,50 +5192,8 @@
       <c r="K130">
         <v>0.460999995470047</v>
       </c>
-      <c r="L130">
-        <v>0.47450000047683716</v>
-      </c>
-      <c r="M130">
-        <v>0.49959999322891235</v>
-      </c>
-      <c r="N130">
-        <v>0.51529997587203979</v>
-      </c>
-      <c r="O130">
-        <v>0.52219998836517334</v>
-      </c>
-      <c r="P130">
-        <v>0.52439999580383301</v>
-      </c>
-      <c r="Q130">
-        <v>0.54040002822875977</v>
-      </c>
-      <c r="R130">
-        <v>0.5439000129699707</v>
-      </c>
-      <c r="S130">
-        <v>0.54820001125335693</v>
-      </c>
-      <c r="T130">
-        <v>0.55150002241134644</v>
-      </c>
-      <c r="U130">
-        <v>0.55430001020431519</v>
-      </c>
-      <c r="V130">
-        <v>0.55620002746582031</v>
-      </c>
-      <c r="W130">
-        <v>0.55949997901916504</v>
-      </c>
-      <c r="X130">
-        <v>0.55970001220703125</v>
-      </c>
-      <c r="Y130">
-        <v>0.56059998273849487</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="5" t="s">
         <v>134</v>
       </c>
@@ -9182,50 +5227,8 @@
       <c r="K131">
         <v>0.17100000381469727</v>
       </c>
-      <c r="L131">
-        <v>0.17180000245571136</v>
-      </c>
-      <c r="M131">
-        <v>0.17159999907016754</v>
-      </c>
-      <c r="N131">
-        <v>0.17180000245571136</v>
-      </c>
-      <c r="O131">
-        <v>0.17239999771118164</v>
-      </c>
-      <c r="P131">
-        <v>0.17339999973773956</v>
-      </c>
-      <c r="Q131">
-        <v>0.17409999668598175</v>
-      </c>
-      <c r="R131">
-        <v>0.1745000034570694</v>
-      </c>
-      <c r="S131">
-        <v>0.17499999701976776</v>
-      </c>
-      <c r="T131">
-        <v>0.1761000007390976</v>
-      </c>
-      <c r="U131">
-        <v>0.17640000581741333</v>
-      </c>
-      <c r="V131">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="W131">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="X131">
-        <v>0.17820000648498535</v>
-      </c>
-      <c r="Y131">
-        <v>0.17900000512599945</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="5" t="s">
         <v>135</v>
       </c>
@@ -9259,50 +5262,8 @@
       <c r="K132">
         <v>0.46169999241828918</v>
       </c>
-      <c r="L132">
-        <v>0.4779999852180481</v>
-      </c>
-      <c r="M132">
-        <v>0.4982999861240387</v>
-      </c>
-      <c r="N132">
-        <v>0.51490002870559692</v>
-      </c>
-      <c r="O132">
-        <v>0.52389997243881226</v>
-      </c>
-      <c r="P132">
-        <v>0.52710002660751343</v>
-      </c>
-      <c r="Q132">
-        <v>0.54339998960494995</v>
-      </c>
-      <c r="R132">
-        <v>0.54610002040863037</v>
-      </c>
-      <c r="S132">
-        <v>0.55019998550415039</v>
-      </c>
-      <c r="T132">
-        <v>0.55479997396469116</v>
-      </c>
-      <c r="U132">
-        <v>0.55640000104904175</v>
-      </c>
-      <c r="V132">
-        <v>0.55889999866485596</v>
-      </c>
-      <c r="W132">
-        <v>0.56370002031326294</v>
-      </c>
-      <c r="X132">
-        <v>0.56169998645782471</v>
-      </c>
-      <c r="Y132">
-        <v>0.56529998779296875</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="5" t="s">
         <v>136</v>
       </c>
@@ -9336,50 +5297,8 @@
       <c r="K133">
         <v>0.46329998970031738</v>
       </c>
-      <c r="L133">
-        <v>0.47670000791549683</v>
-      </c>
-      <c r="M133">
-        <v>0.49970000982284546</v>
-      </c>
-      <c r="N133">
-        <v>0.51499998569488525</v>
-      </c>
-      <c r="O133">
-        <v>0.52490001916885376</v>
-      </c>
-      <c r="P133">
-        <v>0.52819997072219849</v>
-      </c>
-      <c r="Q133">
-        <v>0.5461999773979187</v>
-      </c>
-      <c r="R133">
-        <v>0.5493999719619751</v>
-      </c>
-      <c r="S133">
-        <v>0.55290001630783081</v>
-      </c>
-      <c r="T133">
-        <v>0.55760002136230469</v>
-      </c>
-      <c r="U133">
-        <v>0.5601000189781189</v>
-      </c>
-      <c r="V133">
-        <v>0.56050002574920654</v>
-      </c>
-      <c r="W133">
-        <v>0.5658000111579895</v>
-      </c>
-      <c r="X133">
-        <v>0.56529998779296875</v>
-      </c>
-      <c r="Y133">
-        <v>0.56679999828338623</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="5" t="s">
         <v>137</v>
       </c>
@@ -9413,50 +5332,8 @@
       <c r="K134">
         <v>0.44940000772476196</v>
       </c>
-      <c r="L134">
-        <v>0.46830001473426819</v>
-      </c>
-      <c r="M134">
-        <v>0.48600000143051147</v>
-      </c>
-      <c r="N134">
-        <v>0.50199997425079346</v>
-      </c>
-      <c r="O134">
-        <v>0.51160001754760742</v>
-      </c>
-      <c r="P134">
-        <v>0.51569998264312744</v>
-      </c>
-      <c r="Q134">
-        <v>0.53130000829696655</v>
-      </c>
-      <c r="R134">
-        <v>0.53560000658035278</v>
-      </c>
-      <c r="S134">
-        <v>0.53949999809265137</v>
-      </c>
-      <c r="T134">
-        <v>0.54439997673034668</v>
-      </c>
-      <c r="U134">
-        <v>0.54329997301101685</v>
-      </c>
-      <c r="V134">
-        <v>0.54739999771118164</v>
-      </c>
-      <c r="W134">
-        <v>0.55080002546310425</v>
-      </c>
-      <c r="X134">
-        <v>0.55140000581741333</v>
-      </c>
-      <c r="Y134">
-        <v>0.5526999831199646</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="5" t="s">
         <v>138</v>
       </c>
@@ -9490,50 +5367,8 @@
       <c r="K135">
         <v>0.45750001072883606</v>
       </c>
-      <c r="L135">
-        <v>0.4708000123500824</v>
-      </c>
-      <c r="M135">
-        <v>0.48969998955726624</v>
-      </c>
-      <c r="N135">
-        <v>0.50429999828338623</v>
-      </c>
-      <c r="O135">
-        <v>0.51529997587203979</v>
-      </c>
-      <c r="P135">
-        <v>0.51929998397827148</v>
-      </c>
-      <c r="Q135">
-        <v>0.53949999809265137</v>
-      </c>
-      <c r="R135">
-        <v>0.5429999828338623</v>
-      </c>
-      <c r="S135">
-        <v>0.54720002412796021</v>
-      </c>
-      <c r="T135">
-        <v>0.54860001802444458</v>
-      </c>
-      <c r="U135">
-        <v>0.55199998617172241</v>
-      </c>
-      <c r="V135">
-        <v>0.5569000244140625</v>
-      </c>
-      <c r="W135">
-        <v>0.55809998512268066</v>
-      </c>
-      <c r="X135">
-        <v>0.55830001831054688</v>
-      </c>
-      <c r="Y135">
-        <v>0.56019997596740723</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -9551,7 +5386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -10369,7 +6204,7 @@
         <v>strain:strain1|strain__parent:parent1|strain__ko:gene1,gene2,gene3|strain__plasmid:plasmid1,plasmid2,plasmid3|media__base:Base1|media__cc: atc 1|environment__labware:96 Well Plate|environment__temperature:37|rep:1</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:M28" si="0">"strain:"&amp;C$19&amp;"|strain__parent:parent1"&amp;"|strain__ko:"&amp;C$20&amp;"|strain__plasmid:"&amp;C$17&amp;"|media__base:"&amp;$A21&amp;"|"&amp;C$12&amp;"|"&amp;$B$13&amp;"|"&amp;$B$14&amp;"|rep:"&amp;C$18</f>
+        <f t="shared" ref="C21:M24" si="0">"strain:"&amp;C$19&amp;"|strain__parent:parent1"&amp;"|strain__ko:"&amp;C$20&amp;"|strain__plasmid:"&amp;C$17&amp;"|media__base:"&amp;$A21&amp;"|"&amp;C$12&amp;"|"&amp;$B$13&amp;"|"&amp;$B$14&amp;"|rep:"&amp;C$18</f>
         <v>strain:strain1|strain__parent:parent1|strain__ko:gene1,gene2,gene3|strain__plasmid:plasmid1,plasmid2,plasmid3|media__base:Base1|media__cc: 1 atc|environment__labware:96 Well Plate|environment__temperature:37|rep:2</v>
       </c>
       <c r="D21" t="str">
